--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,25 +629,25 @@
         <v>0.9999953599938179</v>
       </c>
       <c r="D3">
-        <v>1.00001855686838</v>
+        <v>1.000010208680536</v>
       </c>
       <c r="E3">
-        <v>0.9999953599938179</v>
+        <v>0.9999876298111298</v>
       </c>
       <c r="F3">
         <v>0.9999953599938179</v>
       </c>
       <c r="G3">
-        <v>0.9999876298111298</v>
+        <v>0.9999953599938179</v>
       </c>
       <c r="H3">
-        <v>1.000010208680536</v>
+        <v>1.00001855686838</v>
       </c>
       <c r="I3">
+        <v>1.00001855686838</v>
+      </c>
+      <c r="J3">
         <v>0.9999953599938179</v>
-      </c>
-      <c r="J3">
-        <v>1.00001855686838</v>
       </c>
       <c r="K3">
         <v>0.9999953599938179</v>
@@ -728,7 +680,7 @@
         <v>1.000000412556916</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,25 +691,25 @@
         <v>0.9999910431493483</v>
       </c>
       <c r="D4">
-        <v>1.000035823509013</v>
+        <v>1.000019704778302</v>
       </c>
       <c r="E4">
-        <v>0.9999910431493483</v>
+        <v>0.9999761180834331</v>
       </c>
       <c r="F4">
         <v>0.9999910431493483</v>
       </c>
       <c r="G4">
-        <v>0.9999761180834329</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="H4">
-        <v>1.000019704778302</v>
+        <v>1.000035823509013</v>
       </c>
       <c r="I4">
+        <v>1.000035823509013</v>
+      </c>
+      <c r="J4">
         <v>0.9999910431493483</v>
-      </c>
-      <c r="J4">
-        <v>1.000035823509013</v>
       </c>
       <c r="K4">
         <v>0.9999910431493483</v>
@@ -790,7 +742,7 @@
         <v>1.000000795969799</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,25 +753,25 @@
         <v>0.9999828391099298</v>
       </c>
       <c r="D5">
-        <v>1.000068653900346</v>
+        <v>1.000037759350836</v>
       </c>
       <c r="E5">
-        <v>0.9999828391099298</v>
+        <v>0.9999542350792976</v>
       </c>
       <c r="F5">
         <v>0.9999828391099298</v>
       </c>
       <c r="G5">
-        <v>0.9999542350792976</v>
+        <v>0.9999828391099298</v>
       </c>
       <c r="H5">
-        <v>1.000037759350836</v>
+        <v>1.000068653900346</v>
       </c>
       <c r="I5">
+        <v>1.000068653900346</v>
+      </c>
+      <c r="J5">
         <v>0.9999828391099298</v>
-      </c>
-      <c r="J5">
-        <v>1.000068653900346</v>
       </c>
       <c r="K5">
         <v>0.9999828391099298</v>
@@ -852,7 +804,7 @@
         <v>1.000001527610045</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,25 +815,25 @@
         <v>0.9999748206648856</v>
       </c>
       <c r="D6">
-        <v>1.000100698153536</v>
+        <v>1.000055371905533</v>
       </c>
       <c r="E6">
-        <v>0.9999748206648856</v>
+        <v>0.9999328652807049</v>
       </c>
       <c r="F6">
         <v>0.9999748206648856</v>
       </c>
       <c r="G6">
-        <v>0.9999328652807049</v>
+        <v>0.9999748206648856</v>
       </c>
       <c r="H6">
-        <v>1.000055371905533</v>
+        <v>1.000100698153536</v>
       </c>
       <c r="I6">
+        <v>1.000100698153536</v>
+      </c>
+      <c r="J6">
         <v>0.9999748206648856</v>
-      </c>
-      <c r="J6">
-        <v>1.000100698153536</v>
       </c>
       <c r="K6">
         <v>0.9999748206648856</v>
@@ -914,7 +866,7 @@
         <v>1.000002232889072</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,25 +877,25 @@
         <v>0.9999998315161485</v>
       </c>
       <c r="D7">
-        <v>1.00000067204983</v>
+        <v>1.000000371587076</v>
       </c>
       <c r="E7">
-        <v>0.9999998315161485</v>
+        <v>0.9999995533181147</v>
       </c>
       <c r="F7">
         <v>0.9999998315161485</v>
       </c>
       <c r="G7">
-        <v>0.9999995533181147</v>
+        <v>0.9999998315161485</v>
       </c>
       <c r="H7">
-        <v>1.000000371587076</v>
+        <v>1.00000067204983</v>
       </c>
       <c r="I7">
+        <v>1.00000067204983</v>
+      </c>
+      <c r="J7">
         <v>0.9999998315161485</v>
-      </c>
-      <c r="J7">
-        <v>1.00000067204983</v>
       </c>
       <c r="K7">
         <v>0.9999998315161485</v>
@@ -976,7 +928,7 @@
         <v>1.000000015250577</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,25 +939,25 @@
         <v>1.000000090785369</v>
       </c>
       <c r="D8">
-        <v>0.999999633815882</v>
+        <v>0.9999998005458328</v>
       </c>
       <c r="E8">
-        <v>1.000000090785369</v>
+        <v>1.000000245197239</v>
       </c>
       <c r="F8">
         <v>1.000000090785369</v>
       </c>
       <c r="G8">
-        <v>1.000000245197239</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="H8">
-        <v>0.9999998005458328</v>
+        <v>0.9999996338158822</v>
       </c>
       <c r="I8">
+        <v>0.9999996338158822</v>
+      </c>
+      <c r="J8">
         <v>1.000000090785369</v>
-      </c>
-      <c r="J8">
-        <v>0.999999633815882</v>
       </c>
       <c r="K8">
         <v>1.000000090785369</v>
@@ -1014,31 +966,31 @@
         <v>1.000000090785369</v>
       </c>
       <c r="M8">
-        <v>0.9999998623006254</v>
+        <v>0.9999998623006257</v>
       </c>
       <c r="N8">
-        <v>0.9999998623006254</v>
+        <v>0.9999998623006257</v>
       </c>
       <c r="O8">
         <v>0.9999998417156947</v>
       </c>
       <c r="P8">
-        <v>0.9999999384622066</v>
+        <v>0.9999999384622068</v>
       </c>
       <c r="Q8">
-        <v>0.9999999384622066</v>
+        <v>0.9999999384622068</v>
       </c>
       <c r="R8">
-        <v>0.9999999765429972</v>
+        <v>0.9999999765429973</v>
       </c>
       <c r="S8">
-        <v>0.9999999765429972</v>
+        <v>0.9999999765429973</v>
       </c>
       <c r="T8">
         <v>0.9999999919858436</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,25 +1001,25 @@
         <v>1.000000305983585</v>
       </c>
       <c r="D9">
-        <v>0.9999987758151465</v>
+        <v>0.9999993273606919</v>
       </c>
       <c r="E9">
-        <v>1.000000305983585</v>
+        <v>1.000000818427865</v>
       </c>
       <c r="F9">
         <v>1.000000305983585</v>
       </c>
       <c r="G9">
-        <v>1.000000818427865</v>
+        <v>1.000000305983585</v>
       </c>
       <c r="H9">
-        <v>0.9999993273606919</v>
+        <v>0.9999987758151465</v>
       </c>
       <c r="I9">
+        <v>0.9999987758151465</v>
+      </c>
+      <c r="J9">
         <v>1.000000305983585</v>
-      </c>
-      <c r="J9">
-        <v>0.9999987758151465</v>
       </c>
       <c r="K9">
         <v>1.000000305983585</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999999732590764</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,25 +1063,25 @@
         <v>1.000000462187373</v>
       </c>
       <c r="D10">
-        <v>0.999998149525049</v>
+        <v>0.9999989833757335</v>
       </c>
       <c r="E10">
-        <v>1.000000462187373</v>
+        <v>1.000001236232079</v>
       </c>
       <c r="F10">
         <v>1.000000462187373</v>
       </c>
       <c r="G10">
-        <v>1.000001236232079</v>
+        <v>1.000000462187373</v>
       </c>
       <c r="H10">
-        <v>0.9999989833757335</v>
+        <v>0.999998149525049</v>
       </c>
       <c r="I10">
+        <v>0.999998149525049</v>
+      </c>
+      <c r="J10">
         <v>1.000000462187373</v>
-      </c>
-      <c r="J10">
-        <v>0.999998149525049</v>
       </c>
       <c r="K10">
         <v>1.000000462187373</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999999592824969</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>1.000001473389495</v>
       </c>
       <c r="D11">
-        <v>0.9999941056164553</v>
+        <v>0.9999967590757447</v>
       </c>
       <c r="E11">
-        <v>1.000001473389495</v>
+        <v>1.000003929609964</v>
       </c>
       <c r="F11">
         <v>1.000001473389495</v>
       </c>
       <c r="G11">
-        <v>1.000003929609964</v>
+        <v>1.000001473389495</v>
       </c>
       <c r="H11">
-        <v>0.9999967590757447</v>
+        <v>0.9999941056164553</v>
       </c>
       <c r="I11">
+        <v>0.9999941056164553</v>
+      </c>
+      <c r="J11">
         <v>1.000001473389495</v>
-      </c>
-      <c r="J11">
-        <v>0.9999941056164553</v>
       </c>
       <c r="K11">
         <v>1.000001473389495</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999998690784416</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,25 +1187,25 @@
         <v>0.9999073222309677</v>
       </c>
       <c r="D12">
-        <v>1.000370698243153</v>
+        <v>1.00020388253831</v>
       </c>
       <c r="E12">
-        <v>0.9999073222309677</v>
+        <v>0.9997528702554451</v>
       </c>
       <c r="F12">
         <v>0.9999073222309677</v>
       </c>
       <c r="G12">
-        <v>0.999752870255445</v>
+        <v>0.9999073222309677</v>
       </c>
       <c r="H12">
-        <v>1.00020388253831</v>
+        <v>1.000370698243154</v>
       </c>
       <c r="I12">
+        <v>1.000370698243154</v>
+      </c>
+      <c r="J12">
         <v>0.9999073222309677</v>
-      </c>
-      <c r="J12">
-        <v>1.000370698243153</v>
       </c>
       <c r="K12">
         <v>0.9999073222309677</v>
@@ -1286,7 +1238,7 @@
         <v>1.000008236288302</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,25 +1249,25 @@
         <v>0.999975776093317</v>
       </c>
       <c r="D13">
-        <v>1.000096907769417</v>
+        <v>1.000053302596141</v>
       </c>
       <c r="E13">
-        <v>0.999975776093317</v>
+        <v>0.999935393613998</v>
       </c>
       <c r="F13">
         <v>0.999975776093317</v>
       </c>
       <c r="G13">
-        <v>0.999935393613998</v>
+        <v>0.999975776093317</v>
       </c>
       <c r="H13">
-        <v>1.000053302596141</v>
+        <v>1.000096907769418</v>
       </c>
       <c r="I13">
+        <v>1.000096907769418</v>
+      </c>
+      <c r="J13">
         <v>0.999975776093317</v>
-      </c>
-      <c r="J13">
-        <v>1.000096907769417</v>
       </c>
       <c r="K13">
         <v>0.999975776093317</v>
@@ -1348,7 +1300,7 @@
         <v>1.000002155376585</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,25 +1311,25 @@
         <v>0.9997681067625329</v>
       </c>
       <c r="D14">
-        <v>1.000927579456783</v>
+        <v>1.000510167563672</v>
       </c>
       <c r="E14">
-        <v>0.9997681067625329</v>
+        <v>0.99938161847076</v>
       </c>
       <c r="F14">
         <v>0.9997681067625329</v>
       </c>
       <c r="G14">
-        <v>0.99938161847076</v>
+        <v>0.9997681067625329</v>
       </c>
       <c r="H14">
-        <v>1.000510167563672</v>
+        <v>1.000927579456783</v>
       </c>
       <c r="I14">
+        <v>1.000927579456783</v>
+      </c>
+      <c r="J14">
         <v>0.9997681067625329</v>
-      </c>
-      <c r="J14">
-        <v>1.000927579456783</v>
       </c>
       <c r="K14">
         <v>0.9997681067625329</v>
@@ -1410,7 +1362,7 @@
         <v>1.000020614296469</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,25 +1373,25 @@
         <v>0.9999367463468105</v>
       </c>
       <c r="D15">
-        <v>1.000253014939221</v>
+        <v>1.000139159407399</v>
       </c>
       <c r="E15">
-        <v>0.9999367463468105</v>
+        <v>0.9998313272358839</v>
       </c>
       <c r="F15">
         <v>0.9999367463468105</v>
       </c>
       <c r="G15">
-        <v>0.9998313272358839</v>
+        <v>0.9999367463468105</v>
       </c>
       <c r="H15">
-        <v>1.000139159407398</v>
+        <v>1.000253014939221</v>
       </c>
       <c r="I15">
+        <v>1.000253014939221</v>
+      </c>
+      <c r="J15">
         <v>0.9999367463468105</v>
-      </c>
-      <c r="J15">
-        <v>1.000253014939221</v>
       </c>
       <c r="K15">
         <v>0.9999367463468105</v>
@@ -1454,7 +1406,7 @@
         <v>1.000094880643016</v>
       </c>
       <c r="O15">
-        <v>1.000109640231143</v>
+        <v>1.000109640231144</v>
       </c>
       <c r="P15">
         <v>1.000042169210947</v>
@@ -1472,7 +1424,7 @@
         <v>1.000005623437156</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999999802982079</v>
+        <v>0.9999096156133691</v>
       </c>
       <c r="D16">
-        <v>1.000000076864969</v>
+        <v>1.000198845303214</v>
       </c>
       <c r="E16">
-        <v>0.9999999802982079</v>
+        <v>0.9997589784948435</v>
       </c>
       <c r="F16">
-        <v>0.9999999802982079</v>
+        <v>0.9999096156133691</v>
       </c>
       <c r="G16">
-        <v>0.9999999499695018</v>
+        <v>0.9999096156133691</v>
       </c>
       <c r="H16">
-        <v>1.000000044221804</v>
+        <v>1.000361522410699</v>
       </c>
       <c r="I16">
-        <v>0.9999999802982079</v>
+        <v>1.000361522410699</v>
       </c>
       <c r="J16">
-        <v>1.000000076864969</v>
+        <v>0.9999096156133691</v>
       </c>
       <c r="K16">
-        <v>0.9999999802982079</v>
+        <v>0.9999096156133691</v>
       </c>
       <c r="L16">
-        <v>0.9999999802982079</v>
+        <v>0.9999096156133691</v>
       </c>
       <c r="M16">
-        <v>1.000000028581588</v>
+        <v>1.000135569012034</v>
       </c>
       <c r="N16">
-        <v>1.000000028581588</v>
+        <v>1.000135569012034</v>
       </c>
       <c r="O16">
-        <v>1.000000033794994</v>
+        <v>1.000156661109094</v>
       </c>
       <c r="P16">
-        <v>1.000000012487128</v>
+        <v>1.000060251212479</v>
       </c>
       <c r="Q16">
-        <v>1.000000012487128</v>
+        <v>1.000060251212479</v>
       </c>
       <c r="R16">
-        <v>1.000000004439898</v>
+        <v>1.000022592312701</v>
       </c>
       <c r="S16">
-        <v>1.000000004439898</v>
+        <v>1.000022592312701</v>
       </c>
       <c r="T16">
-        <v>1.000000001991816</v>
+        <v>1.00000803217481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999995939277414</v>
+        <v>0.999926377614564</v>
       </c>
       <c r="D17">
-        <v>1.000001622991025</v>
+        <v>1.000161968574247</v>
       </c>
       <c r="E17">
-        <v>0.9999995939277414</v>
+        <v>0.9998036764466121</v>
       </c>
       <c r="F17">
-        <v>0.9999995939277414</v>
+        <v>0.999926377614564</v>
       </c>
       <c r="G17">
-        <v>0.9999989191671755</v>
+        <v>0.999926377614564</v>
       </c>
       <c r="H17">
-        <v>1.000000894821559</v>
+        <v>1.000294479266341</v>
       </c>
       <c r="I17">
-        <v>0.9999995939277414</v>
+        <v>1.000294479266341</v>
       </c>
       <c r="J17">
-        <v>1.000001622991025</v>
+        <v>0.999926377614564</v>
       </c>
       <c r="K17">
-        <v>0.9999995939277414</v>
+        <v>0.999926377614564</v>
       </c>
       <c r="L17">
-        <v>0.9999995939277414</v>
+        <v>0.999926377614564</v>
       </c>
       <c r="M17">
-        <v>1.000000608459383</v>
+        <v>1.000110428440453</v>
       </c>
       <c r="N17">
-        <v>1.000000608459383</v>
+        <v>1.000110428440453</v>
       </c>
       <c r="O17">
-        <v>1.000000703913442</v>
+        <v>1.000127608485051</v>
       </c>
       <c r="P17">
-        <v>1.000000270282169</v>
+        <v>1.000049078165157</v>
       </c>
       <c r="Q17">
-        <v>1.000000270282169</v>
+        <v>1.000049078165157</v>
       </c>
       <c r="R17">
-        <v>1.000000101193562</v>
+        <v>1.000018403027508</v>
       </c>
       <c r="S17">
-        <v>1.000000101193562</v>
+        <v>1.000018403027508</v>
       </c>
       <c r="T17">
-        <v>1.000000036460498</v>
+        <v>1.000006542855149</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999985711390705</v>
+        <v>0.9999607199187259</v>
       </c>
       <c r="D18">
-        <v>1.000005716105109</v>
+        <v>1.000086412950325</v>
       </c>
       <c r="E18">
-        <v>0.9999985711390705</v>
+        <v>0.9998952548885562</v>
       </c>
       <c r="F18">
-        <v>0.9999985711390705</v>
+        <v>0.9999607199187259</v>
       </c>
       <c r="G18">
-        <v>0.999996190414643</v>
+        <v>0.9999607199187259</v>
       </c>
       <c r="H18">
-        <v>1.000003143564702</v>
+        <v>1.000157121313644</v>
       </c>
       <c r="I18">
-        <v>0.9999985711390705</v>
+        <v>1.000157121313644</v>
       </c>
       <c r="J18">
-        <v>1.000005716105109</v>
+        <v>0.9999607199187259</v>
       </c>
       <c r="K18">
-        <v>0.9999985711390705</v>
+        <v>0.9999607199187259</v>
       </c>
       <c r="L18">
-        <v>0.9999985711390705</v>
+        <v>0.9999607199187259</v>
       </c>
       <c r="M18">
-        <v>1.00000214362209</v>
+        <v>1.000058920616185</v>
       </c>
       <c r="N18">
-        <v>1.00000214362209</v>
+        <v>1.000058920616185</v>
       </c>
       <c r="O18">
-        <v>1.000002476936294</v>
+        <v>1.000068084727565</v>
       </c>
       <c r="P18">
-        <v>1.000000952794416</v>
+        <v>1.000026187050365</v>
       </c>
       <c r="Q18">
-        <v>1.000000952794416</v>
+        <v>1.000026187050365</v>
       </c>
       <c r="R18">
-        <v>1.00000035738058</v>
+        <v>1.000009820267455</v>
       </c>
       <c r="S18">
-        <v>1.00000035738058</v>
+        <v>1.000009820267455</v>
       </c>
       <c r="T18">
-        <v>1.000000127250277</v>
+        <v>1.000003491484784</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="D19">
+        <v>1.000090098327734</v>
+      </c>
+      <c r="E19">
+        <v>0.9998907884784627</v>
+      </c>
+      <c r="F19">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="G19">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="H19">
+        <v>1.000163816274678</v>
+      </c>
+      <c r="I19">
+        <v>1.000163816274678</v>
+      </c>
+      <c r="J19">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="K19">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="L19">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="M19">
+        <v>1.000061431685214</v>
+      </c>
+      <c r="N19">
+        <v>1.000061431685214</v>
+      </c>
+      <c r="O19">
+        <v>1.000070987232721</v>
+      </c>
+      <c r="P19">
+        <v>1.000027303488726</v>
+      </c>
+      <c r="Q19">
+        <v>1.000027303488726</v>
+      </c>
+      <c r="R19">
+        <v>1.000010239390482</v>
+      </c>
+      <c r="S19">
+        <v>1.000010239390482</v>
+      </c>
+      <c r="T19">
+        <v>1.000003640728021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="D20">
+        <v>1.000000044221804</v>
+      </c>
+      <c r="E20">
+        <v>0.9999999499695018</v>
+      </c>
+      <c r="F20">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="G20">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="H20">
+        <v>1.000000076864969</v>
+      </c>
+      <c r="I20">
+        <v>1.000000076864969</v>
+      </c>
+      <c r="J20">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="K20">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="L20">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="M20">
+        <v>1.000000028581588</v>
+      </c>
+      <c r="N20">
+        <v>1.000000028581588</v>
+      </c>
+      <c r="O20">
+        <v>1.000000033794994</v>
+      </c>
+      <c r="P20">
+        <v>1.000000012487128</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000012487128</v>
+      </c>
+      <c r="R20">
+        <v>1.000000004439898</v>
+      </c>
+      <c r="S20">
+        <v>1.000000004439898</v>
+      </c>
+      <c r="T20">
+        <v>1.000000001991816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="D21">
+        <v>1.000000894821559</v>
+      </c>
+      <c r="E21">
+        <v>0.9999989191671756</v>
+      </c>
+      <c r="F21">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="G21">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="H21">
+        <v>1.000001622991025</v>
+      </c>
+      <c r="I21">
+        <v>1.000001622991025</v>
+      </c>
+      <c r="J21">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="K21">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="L21">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="M21">
+        <v>1.000000608459383</v>
+      </c>
+      <c r="N21">
+        <v>1.000000608459383</v>
+      </c>
+      <c r="O21">
+        <v>1.000000703913442</v>
+      </c>
+      <c r="P21">
+        <v>1.000000270282169</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000270282169</v>
+      </c>
+      <c r="R21">
+        <v>1.000000101193562</v>
+      </c>
+      <c r="S21">
+        <v>1.000000101193562</v>
+      </c>
+      <c r="T21">
+        <v>1.000000036460498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="D22">
+        <v>1.000003143564702</v>
+      </c>
+      <c r="E22">
+        <v>0.999996190414643</v>
+      </c>
+      <c r="F22">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="G22">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="H22">
+        <v>1.000005716105109</v>
+      </c>
+      <c r="I22">
+        <v>1.000005716105109</v>
+      </c>
+      <c r="J22">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="K22">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="L22">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="M22">
+        <v>1.00000214362209</v>
+      </c>
+      <c r="N22">
+        <v>1.00000214362209</v>
+      </c>
+      <c r="O22">
+        <v>1.000002476936294</v>
+      </c>
+      <c r="P22">
+        <v>1.000000952794416</v>
+      </c>
+      <c r="Q22">
+        <v>1.000000952794416</v>
+      </c>
+      <c r="R22">
+        <v>1.00000035738058</v>
+      </c>
+      <c r="S22">
+        <v>1.00000035738058</v>
+      </c>
+      <c r="T22">
+        <v>1.000000127250277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9999966540202004</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.000007362897272</v>
+      </c>
+      <c r="E23">
+        <v>0.9999910766302579</v>
+      </c>
+      <c r="F23">
+        <v>0.9999966540202004</v>
+      </c>
+      <c r="G23">
+        <v>0.9999966540202004</v>
+      </c>
+      <c r="H23">
         <v>1.000013388024186</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>1.000013388024186</v>
+      </c>
+      <c r="J23">
         <v>0.9999966540202004</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>0.9999966540202004</v>
       </c>
-      <c r="G19">
-        <v>0.9999910766302579</v>
-      </c>
-      <c r="H19">
-        <v>1.000007362897272</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
         <v>0.9999966540202004</v>
       </c>
-      <c r="J19">
-        <v>1.000013388024186</v>
-      </c>
-      <c r="K19">
-        <v>0.9999966540202004</v>
-      </c>
-      <c r="L19">
-        <v>0.9999966540202004</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000005021022193</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000005021022193</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000005801647219</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000002232021529</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000002232021529</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000000837521197</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000000837521197</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.00000029826872</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999953599938179</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="D3">
-        <v>1.000010208680536</v>
+        <v>1.000084979762251</v>
       </c>
       <c r="E3">
-        <v>0.9999876298111298</v>
+        <v>0.9998969928962534</v>
       </c>
       <c r="F3">
-        <v>0.9999953599938179</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="G3">
-        <v>0.9999953599938179</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="H3">
-        <v>1.00001855686838</v>
+        <v>1.000154512384722</v>
       </c>
       <c r="I3">
-        <v>1.00001855686838</v>
+        <v>1.000154512384722</v>
       </c>
       <c r="J3">
-        <v>0.9999953599938179</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="K3">
-        <v>0.9999953599938179</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="L3">
-        <v>0.9999953599938179</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="M3">
-        <v>1.000006958431099</v>
+        <v>1.000057942103744</v>
       </c>
       <c r="N3">
-        <v>1.000006958431099</v>
+        <v>1.000057942103744</v>
       </c>
       <c r="O3">
-        <v>1.000008041847578</v>
+        <v>1.00006695465658</v>
       </c>
       <c r="P3">
-        <v>1.000003092285339</v>
+        <v>1.000025752010085</v>
       </c>
       <c r="Q3">
-        <v>1.000003092285339</v>
+        <v>1.000025752010085</v>
       </c>
       <c r="R3">
-        <v>1.000001159212458</v>
+        <v>1.000009656963255</v>
       </c>
       <c r="S3">
-        <v>1.000001159212458</v>
+        <v>1.000009656963255</v>
       </c>
       <c r="T3">
-        <v>1.000000412556916</v>
+        <v>1.000003433418587</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999910431493483</v>
+        <v>0.999960607862469</v>
       </c>
       <c r="D4">
-        <v>1.000019704778302</v>
+        <v>1.000086661007259</v>
       </c>
       <c r="E4">
-        <v>0.9999761180834331</v>
+        <v>0.999894955618715</v>
       </c>
       <c r="F4">
-        <v>0.9999910431493483</v>
+        <v>0.999960607862469</v>
       </c>
       <c r="G4">
-        <v>0.9999910431493483</v>
+        <v>0.999960607862469</v>
       </c>
       <c r="H4">
-        <v>1.000035823509013</v>
+        <v>1.000157568169958</v>
       </c>
       <c r="I4">
-        <v>1.000035823509013</v>
+        <v>1.000157568169958</v>
       </c>
       <c r="J4">
-        <v>0.9999910431493483</v>
+        <v>0.999960607862469</v>
       </c>
       <c r="K4">
-        <v>0.9999910431493483</v>
+        <v>0.999960607862469</v>
       </c>
       <c r="L4">
-        <v>0.9999910431493483</v>
+        <v>0.999960607862469</v>
       </c>
       <c r="M4">
-        <v>1.00001343332918</v>
+        <v>1.000059088016214</v>
       </c>
       <c r="N4">
-        <v>1.00001343332918</v>
+        <v>1.000059088016214</v>
       </c>
       <c r="O4">
-        <v>1.000015523812221</v>
+        <v>1.000068279013229</v>
       </c>
       <c r="P4">
-        <v>1.000005969935903</v>
+        <v>1.000026261298299</v>
       </c>
       <c r="Q4">
-        <v>1.000005969935903</v>
+        <v>1.000026261298299</v>
       </c>
       <c r="R4">
-        <v>1.000002238239264</v>
+        <v>1.000009847939341</v>
       </c>
       <c r="S4">
-        <v>1.000002238239264</v>
+        <v>1.000009847939341</v>
       </c>
       <c r="T4">
-        <v>1.000000795969799</v>
+        <v>1.000003501397223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9999828391099298</v>
+        <v>0.9999629071698105</v>
       </c>
       <c r="D5">
-        <v>1.000037759350836</v>
+        <v>1.000081599649597</v>
       </c>
       <c r="E5">
-        <v>0.9999542350792976</v>
+        <v>0.9999010873584909</v>
       </c>
       <c r="F5">
-        <v>0.9999828391099298</v>
+        <v>0.9999629071698105</v>
       </c>
       <c r="G5">
-        <v>0.9999828391099298</v>
+        <v>0.9999629071698105</v>
       </c>
       <c r="H5">
-        <v>1.000068653900346</v>
+        <v>1.000148378409705</v>
       </c>
       <c r="I5">
-        <v>1.000068653900346</v>
+        <v>1.000148378409705</v>
       </c>
       <c r="J5">
-        <v>0.9999828391099298</v>
+        <v>0.9999629071698105</v>
       </c>
       <c r="K5">
-        <v>0.9999828391099298</v>
+        <v>0.9999629071698105</v>
       </c>
       <c r="L5">
-        <v>0.9999828391099298</v>
+        <v>0.9999629071698105</v>
       </c>
       <c r="M5">
-        <v>1.000025746505138</v>
+        <v>1.000055642789758</v>
       </c>
       <c r="N5">
-        <v>1.000025746505138</v>
+        <v>1.000055642789758</v>
       </c>
       <c r="O5">
-        <v>1.000029750787037</v>
+        <v>1.000064295076371</v>
       </c>
       <c r="P5">
-        <v>1.000011444040068</v>
+        <v>1.000024730916442</v>
       </c>
       <c r="Q5">
-        <v>1.000011444040068</v>
+        <v>1.000024730916442</v>
       </c>
       <c r="R5">
-        <v>1.000004292807534</v>
+        <v>1.000009274979784</v>
       </c>
       <c r="S5">
-        <v>1.000004292807534</v>
+        <v>1.000009274979784</v>
       </c>
       <c r="T5">
-        <v>1.000001527610045</v>
+        <v>1.000003297821204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9999748206648856</v>
+        <v>0.9999644346590915</v>
       </c>
       <c r="D6">
-        <v>1.000055371905533</v>
+        <v>1.000078225340909</v>
       </c>
       <c r="E6">
-        <v>0.9999328652807049</v>
+        <v>0.9999051731818179</v>
       </c>
       <c r="F6">
-        <v>0.9999748206648856</v>
+        <v>0.9999644346590915</v>
       </c>
       <c r="G6">
-        <v>0.9999748206648856</v>
+        <v>0.9999644346590915</v>
       </c>
       <c r="H6">
-        <v>1.000100698153536</v>
+        <v>1.000142245000001</v>
       </c>
       <c r="I6">
-        <v>1.000100698153536</v>
+        <v>1.000142245000001</v>
       </c>
       <c r="J6">
-        <v>0.9999748206648856</v>
+        <v>0.9999644346590915</v>
       </c>
       <c r="K6">
-        <v>0.9999748206648856</v>
+        <v>0.9999644346590915</v>
       </c>
       <c r="L6">
-        <v>0.9999748206648856</v>
+        <v>0.9999644346590915</v>
       </c>
       <c r="M6">
-        <v>1.000037759409211</v>
+        <v>1.000053339829546</v>
       </c>
       <c r="N6">
-        <v>1.000037759409211</v>
+        <v>1.000053339829546</v>
       </c>
       <c r="O6">
-        <v>1.000043630241318</v>
+        <v>1.000061635</v>
       </c>
       <c r="P6">
-        <v>1.000016779827769</v>
+        <v>1.000023704772728</v>
       </c>
       <c r="Q6">
-        <v>1.000016779827769</v>
+        <v>1.000023704772728</v>
       </c>
       <c r="R6">
-        <v>1.000006290037048</v>
+        <v>1.000008887244319</v>
       </c>
       <c r="S6">
-        <v>1.000006290037048</v>
+        <v>1.000008887244319</v>
       </c>
       <c r="T6">
-        <v>1.000002232889072</v>
+        <v>1.000003157916667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999998315161485</v>
+        <v>1.000747739395167</v>
       </c>
       <c r="D7">
-        <v>1.000000371587076</v>
+        <v>0.998354980659695</v>
       </c>
       <c r="E7">
-        <v>0.9999995533181147</v>
+        <v>1.001993960268158</v>
       </c>
       <c r="F7">
-        <v>0.9999998315161485</v>
+        <v>1.000747739395167</v>
       </c>
       <c r="G7">
-        <v>0.9999998315161485</v>
+        <v>1.000747739395167</v>
       </c>
       <c r="H7">
-        <v>1.00000067204983</v>
+        <v>0.9970090515228586</v>
       </c>
       <c r="I7">
-        <v>1.00000067204983</v>
+        <v>0.9970090515228586</v>
       </c>
       <c r="J7">
-        <v>0.9999998315161485</v>
+        <v>1.000747739395167</v>
       </c>
       <c r="K7">
-        <v>0.9999998315161485</v>
+        <v>1.000747739395167</v>
       </c>
       <c r="L7">
-        <v>0.9999998315161485</v>
+        <v>1.000747739395167</v>
       </c>
       <c r="M7">
-        <v>1.000000251782989</v>
+        <v>0.9988783954590128</v>
       </c>
       <c r="N7">
-        <v>1.000000251782989</v>
+        <v>0.9988783954590128</v>
       </c>
       <c r="O7">
-        <v>1.000000291717685</v>
+        <v>0.9987039238592402</v>
       </c>
       <c r="P7">
-        <v>1.000000111694042</v>
+        <v>0.9995015101043977</v>
       </c>
       <c r="Q7">
-        <v>1.000000111694042</v>
+        <v>0.9995015101043977</v>
       </c>
       <c r="R7">
-        <v>1.000000041649569</v>
+        <v>0.99981306742709</v>
       </c>
       <c r="S7">
-        <v>1.000000041649569</v>
+        <v>0.99981306742709</v>
       </c>
       <c r="T7">
-        <v>1.000000015250577</v>
+        <v>0.9999335351060353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000000090785369</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="D8">
-        <v>0.9999998005458328</v>
+        <v>0.9983617020121687</v>
       </c>
       <c r="E8">
-        <v>1.000000245197239</v>
+        <v>1.001985812962056</v>
       </c>
       <c r="F8">
-        <v>1.000000090785369</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="G8">
-        <v>1.000000090785369</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="H8">
-        <v>0.9999996338158822</v>
+        <v>0.9970212724642875</v>
       </c>
       <c r="I8">
-        <v>0.9999996338158822</v>
+        <v>0.9970212724642875</v>
       </c>
       <c r="J8">
-        <v>1.000000090785369</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="K8">
-        <v>1.000000090785369</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="L8">
-        <v>1.000000090785369</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="M8">
-        <v>0.9999998623006257</v>
+        <v>0.9988829782780114</v>
       </c>
       <c r="N8">
-        <v>0.9999998623006257</v>
+        <v>0.9988829782780114</v>
       </c>
       <c r="O8">
-        <v>0.9999998417156947</v>
+        <v>0.9987092195227305</v>
       </c>
       <c r="P8">
-        <v>0.9999999384622068</v>
+        <v>0.9995035468825861</v>
       </c>
       <c r="Q8">
-        <v>0.9999999384622068</v>
+        <v>0.9995035468825861</v>
       </c>
       <c r="R8">
-        <v>0.9999999765429973</v>
+        <v>0.9998138311848734</v>
       </c>
       <c r="S8">
-        <v>0.9999999765429973</v>
+        <v>0.9998138311848734</v>
       </c>
       <c r="T8">
-        <v>0.9999999919858436</v>
+        <v>0.9999338066189529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000000305983585</v>
+        <v>1.000741564377073</v>
       </c>
       <c r="D9">
-        <v>0.9999993273606919</v>
+        <v>0.9983685651554942</v>
       </c>
       <c r="E9">
-        <v>1.000000818427865</v>
+        <v>1.001977493761214</v>
       </c>
       <c r="F9">
-        <v>1.000000305983585</v>
+        <v>1.000741564377073</v>
       </c>
       <c r="G9">
-        <v>1.000000305983585</v>
+        <v>1.000741564377073</v>
       </c>
       <c r="H9">
-        <v>0.9999987758151465</v>
+        <v>0.9970337513558434</v>
       </c>
       <c r="I9">
-        <v>0.9999987758151465</v>
+        <v>0.9970337513558434</v>
       </c>
       <c r="J9">
-        <v>1.000000305983585</v>
+        <v>1.000741564377073</v>
       </c>
       <c r="K9">
-        <v>1.000000305983585</v>
+        <v>1.000741564377073</v>
       </c>
       <c r="L9">
-        <v>1.000000305983585</v>
+        <v>1.000741564377073</v>
       </c>
       <c r="M9">
-        <v>0.9999995408993657</v>
+        <v>0.9988876578664581</v>
       </c>
       <c r="N9">
-        <v>0.9999995408993657</v>
+        <v>0.9988876578664581</v>
       </c>
       <c r="O9">
-        <v>0.9999994697198078</v>
+        <v>0.9987146269628034</v>
       </c>
       <c r="P9">
-        <v>0.9999997959274388</v>
+        <v>0.9995056267033297</v>
       </c>
       <c r="Q9">
-        <v>0.9999997959274388</v>
+        <v>0.9995056267033297</v>
       </c>
       <c r="R9">
-        <v>0.9999999234414754</v>
+        <v>0.9998146111217654</v>
       </c>
       <c r="S9">
-        <v>0.9999999234414754</v>
+        <v>0.9998146111217654</v>
       </c>
       <c r="T9">
-        <v>0.9999999732590764</v>
+        <v>0.9999340839006283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000000462187373</v>
+        <v>1.000738876734837</v>
       </c>
       <c r="D10">
-        <v>0.9999989833757335</v>
+        <v>0.9983744770409412</v>
       </c>
       <c r="E10">
-        <v>1.000001236232079</v>
+        <v>1.001970327418097</v>
       </c>
       <c r="F10">
-        <v>1.000000462187373</v>
+        <v>1.000738876734837</v>
       </c>
       <c r="G10">
-        <v>1.000000462187373</v>
+        <v>1.000738876734837</v>
       </c>
       <c r="H10">
-        <v>0.999998149525049</v>
+        <v>0.9970445010990779</v>
       </c>
       <c r="I10">
-        <v>0.999998149525049</v>
+        <v>0.9970445010990779</v>
       </c>
       <c r="J10">
-        <v>1.000000462187373</v>
+        <v>1.000738876734837</v>
       </c>
       <c r="K10">
-        <v>1.000000462187373</v>
+        <v>1.000738876734837</v>
       </c>
       <c r="L10">
-        <v>1.000000462187373</v>
+        <v>1.000738876734837</v>
       </c>
       <c r="M10">
-        <v>0.999999305856211</v>
+        <v>0.9988916889169577</v>
       </c>
       <c r="N10">
-        <v>0.999999305856211</v>
+        <v>0.9988916889169577</v>
       </c>
       <c r="O10">
-        <v>0.9999991983627184</v>
+        <v>0.9987192849582854</v>
       </c>
       <c r="P10">
-        <v>0.9999996912999317</v>
+        <v>0.9995074181895842</v>
       </c>
       <c r="Q10">
-        <v>0.9999996912999317</v>
+        <v>0.9995074181895842</v>
       </c>
       <c r="R10">
-        <v>0.9999998840217921</v>
+        <v>0.9998152828258975</v>
       </c>
       <c r="S10">
-        <v>0.9999998840217921</v>
+        <v>0.9998152828258975</v>
       </c>
       <c r="T10">
-        <v>0.9999999592824969</v>
+        <v>0.9999343226271046</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000001473389495</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="D11">
-        <v>0.9999967590757447</v>
+        <v>1.000004492020708</v>
       </c>
       <c r="E11">
-        <v>1.000003929609964</v>
+        <v>0.9999945589480972</v>
       </c>
       <c r="F11">
-        <v>1.000001473389495</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="G11">
-        <v>1.000001473389495</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="H11">
-        <v>0.9999941056164553</v>
+        <v>1.000008162352322</v>
       </c>
       <c r="I11">
-        <v>0.9999941056164553</v>
+        <v>1.000008162352322</v>
       </c>
       <c r="J11">
-        <v>1.000001473389495</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="K11">
-        <v>1.000001473389495</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="L11">
-        <v>1.000001473389495</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="M11">
-        <v>0.9999977895029752</v>
+        <v>1.000003060218702</v>
       </c>
       <c r="N11">
-        <v>0.9999977895029752</v>
+        <v>1.000003060218702</v>
       </c>
       <c r="O11">
-        <v>0.9999974460272317</v>
+        <v>1.000003537486037</v>
       </c>
       <c r="P11">
-        <v>0.9999990174651486</v>
+        <v>1.000001359507495</v>
       </c>
       <c r="Q11">
-        <v>0.9999990174651486</v>
+        <v>1.000001359507495</v>
       </c>
       <c r="R11">
-        <v>0.9999996314462352</v>
+        <v>1.000000509151891</v>
       </c>
       <c r="S11">
-        <v>0.9999996314462352</v>
+        <v>1.000000509151891</v>
       </c>
       <c r="T11">
-        <v>0.9999998690784416</v>
+        <v>1.000000181262729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9999073222309677</v>
+        <v>1.000001641904936</v>
       </c>
       <c r="D12">
-        <v>1.00020388253831</v>
+        <v>0.9999963886140214</v>
       </c>
       <c r="E12">
-        <v>0.9997528702554451</v>
+        <v>1.000004381010556</v>
       </c>
       <c r="F12">
-        <v>0.9999073222309677</v>
+        <v>1.000001641904936</v>
       </c>
       <c r="G12">
-        <v>0.9999073222309677</v>
+        <v>1.000001641904936</v>
       </c>
       <c r="H12">
-        <v>1.000370698243154</v>
+        <v>0.9999934299492846</v>
       </c>
       <c r="I12">
-        <v>1.000370698243154</v>
+        <v>0.9999934299492846</v>
       </c>
       <c r="J12">
-        <v>0.9999073222309677</v>
+        <v>1.000001641904936</v>
       </c>
       <c r="K12">
-        <v>0.9999073222309677</v>
+        <v>1.000001641904936</v>
       </c>
       <c r="L12">
-        <v>0.9999073222309677</v>
+        <v>1.000001641904936</v>
       </c>
       <c r="M12">
-        <v>1.000139010237061</v>
+        <v>0.9999975359271103</v>
       </c>
       <c r="N12">
-        <v>1.000139010237061</v>
+        <v>0.9999975359271103</v>
       </c>
       <c r="O12">
-        <v>1.000160634337477</v>
+        <v>0.999997153489414</v>
       </c>
       <c r="P12">
-        <v>1.000061780901696</v>
+        <v>0.9999989045863854</v>
       </c>
       <c r="Q12">
-        <v>1.000061780901696</v>
+        <v>0.9999989045863854</v>
       </c>
       <c r="R12">
-        <v>1.000023166234014</v>
+        <v>0.9999995889160229</v>
       </c>
       <c r="S12">
-        <v>1.000023166234014</v>
+        <v>0.9999995889160229</v>
       </c>
       <c r="T12">
-        <v>1.000008236288302</v>
+        <v>0.9999998542147782</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999975776093317</v>
+        <v>1.00000697772561</v>
       </c>
       <c r="D13">
-        <v>1.000053302596141</v>
+        <v>0.9999846428337364</v>
       </c>
       <c r="E13">
-        <v>0.999935393613998</v>
+        <v>1.000018615868617</v>
       </c>
       <c r="F13">
-        <v>0.999975776093317</v>
+        <v>1.00000697772561</v>
       </c>
       <c r="G13">
-        <v>0.999975776093317</v>
+        <v>1.00000697772561</v>
       </c>
       <c r="H13">
-        <v>1.000096907769418</v>
+        <v>0.9999720798059455</v>
       </c>
       <c r="I13">
-        <v>1.000096907769418</v>
+        <v>0.9999720798059455</v>
       </c>
       <c r="J13">
-        <v>0.999975776093317</v>
+        <v>1.00000697772561</v>
       </c>
       <c r="K13">
-        <v>0.999975776093317</v>
+        <v>1.00000697772561</v>
       </c>
       <c r="L13">
-        <v>0.999975776093317</v>
+        <v>1.00000697772561</v>
       </c>
       <c r="M13">
-        <v>1.000036341931367</v>
+        <v>0.9999895287657776</v>
       </c>
       <c r="N13">
-        <v>1.000036341931367</v>
+        <v>0.9999895287657776</v>
       </c>
       <c r="O13">
-        <v>1.000041995486292</v>
+        <v>0.9999879001217639</v>
       </c>
       <c r="P13">
-        <v>1.000016153318684</v>
+        <v>0.9999953450857216</v>
       </c>
       <c r="Q13">
-        <v>1.000016153318684</v>
+        <v>0.9999953450857216</v>
       </c>
       <c r="R13">
-        <v>1.000006059012342</v>
+        <v>0.9999982532456937</v>
       </c>
       <c r="S13">
-        <v>1.000006059012342</v>
+        <v>0.9999982532456937</v>
       </c>
       <c r="T13">
-        <v>1.000002155376585</v>
+        <v>0.9999993786141882</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9997681067625329</v>
+        <v>0.9999872940923532</v>
       </c>
       <c r="D14">
-        <v>1.000510167563672</v>
+        <v>1.000027938618996</v>
       </c>
       <c r="E14">
-        <v>0.99938161847076</v>
+        <v>0.9999661387752604</v>
       </c>
       <c r="F14">
-        <v>0.9997681067625329</v>
+        <v>0.9999872940923532</v>
       </c>
       <c r="G14">
-        <v>0.9997681067625329</v>
+        <v>0.9999872940923532</v>
       </c>
       <c r="H14">
-        <v>1.000927579456783</v>
+        <v>1.000050795319237</v>
       </c>
       <c r="I14">
-        <v>1.000927579456783</v>
+        <v>1.000050795319237</v>
       </c>
       <c r="J14">
-        <v>0.9997681067625329</v>
+        <v>0.9999872940923532</v>
       </c>
       <c r="K14">
-        <v>0.9997681067625329</v>
+        <v>0.9999872940923532</v>
       </c>
       <c r="L14">
-        <v>0.9997681067625329</v>
+        <v>0.9999872940923532</v>
       </c>
       <c r="M14">
-        <v>1.000347843109658</v>
+        <v>1.000019044705795</v>
       </c>
       <c r="N14">
-        <v>1.000347843109658</v>
+        <v>1.000019044705795</v>
       </c>
       <c r="O14">
-        <v>1.000401951260996</v>
+        <v>1.000022009343529</v>
       </c>
       <c r="P14">
-        <v>1.000154597660616</v>
+        <v>1.000008461167981</v>
       </c>
       <c r="Q14">
-        <v>1.000154597660616</v>
+        <v>1.000008461167981</v>
       </c>
       <c r="R14">
-        <v>1.000057974936095</v>
+        <v>1.000003169399074</v>
       </c>
       <c r="S14">
-        <v>1.000057974936095</v>
+        <v>1.000003169399074</v>
       </c>
       <c r="T14">
-        <v>1.000020614296469</v>
+        <v>1.000001125831759</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999367463468105</v>
+        <v>0.9999953599938179</v>
       </c>
       <c r="D15">
-        <v>1.000139159407399</v>
+        <v>1.000010208680536</v>
       </c>
       <c r="E15">
-        <v>0.9998313272358839</v>
+        <v>0.9999876298111298</v>
       </c>
       <c r="F15">
-        <v>0.9999367463468105</v>
+        <v>0.9999953599938179</v>
       </c>
       <c r="G15">
-        <v>0.9999367463468105</v>
+        <v>0.9999953599938179</v>
       </c>
       <c r="H15">
-        <v>1.000253014939221</v>
+        <v>1.00001855686838</v>
       </c>
       <c r="I15">
-        <v>1.000253014939221</v>
+        <v>1.00001855686838</v>
       </c>
       <c r="J15">
-        <v>0.9999367463468105</v>
+        <v>0.9999953599938179</v>
       </c>
       <c r="K15">
-        <v>0.9999367463468105</v>
+        <v>0.9999953599938179</v>
       </c>
       <c r="L15">
-        <v>0.9999367463468105</v>
+        <v>0.9999953599938179</v>
       </c>
       <c r="M15">
-        <v>1.000094880643016</v>
+        <v>1.000006958431099</v>
       </c>
       <c r="N15">
-        <v>1.000094880643016</v>
+        <v>1.000006958431099</v>
       </c>
       <c r="O15">
-        <v>1.000109640231144</v>
+        <v>1.000008041847578</v>
       </c>
       <c r="P15">
-        <v>1.000042169210947</v>
+        <v>1.000003092285339</v>
       </c>
       <c r="Q15">
-        <v>1.000042169210947</v>
+        <v>1.000003092285339</v>
       </c>
       <c r="R15">
-        <v>1.000015813494913</v>
+        <v>1.000001159212458</v>
       </c>
       <c r="S15">
-        <v>1.000015813494913</v>
+        <v>1.000001159212458</v>
       </c>
       <c r="T15">
-        <v>1.000005623437156</v>
+        <v>1.000000412556916</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999096156133691</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="D16">
-        <v>1.000198845303214</v>
+        <v>1.000019704778302</v>
       </c>
       <c r="E16">
-        <v>0.9997589784948435</v>
+        <v>0.9999761180834331</v>
       </c>
       <c r="F16">
-        <v>0.9999096156133691</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="G16">
-        <v>0.9999096156133691</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="H16">
-        <v>1.000361522410699</v>
+        <v>1.000035823509013</v>
       </c>
       <c r="I16">
-        <v>1.000361522410699</v>
+        <v>1.000035823509013</v>
       </c>
       <c r="J16">
-        <v>0.9999096156133691</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="K16">
-        <v>0.9999096156133691</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="L16">
-        <v>0.9999096156133691</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="M16">
-        <v>1.000135569012034</v>
+        <v>1.00001343332918</v>
       </c>
       <c r="N16">
-        <v>1.000135569012034</v>
+        <v>1.00001343332918</v>
       </c>
       <c r="O16">
-        <v>1.000156661109094</v>
+        <v>1.000015523812221</v>
       </c>
       <c r="P16">
-        <v>1.000060251212479</v>
+        <v>1.000005969935903</v>
       </c>
       <c r="Q16">
-        <v>1.000060251212479</v>
+        <v>1.000005969935903</v>
       </c>
       <c r="R16">
-        <v>1.000022592312701</v>
+        <v>1.000002238239264</v>
       </c>
       <c r="S16">
-        <v>1.000022592312701</v>
+        <v>1.000002238239264</v>
       </c>
       <c r="T16">
-        <v>1.00000803217481</v>
+        <v>1.000000795969799</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.999926377614564</v>
+        <v>0.9999828391099298</v>
       </c>
       <c r="D17">
-        <v>1.000161968574247</v>
+        <v>1.000037759350836</v>
       </c>
       <c r="E17">
-        <v>0.9998036764466121</v>
+        <v>0.9999542350792976</v>
       </c>
       <c r="F17">
-        <v>0.999926377614564</v>
+        <v>0.9999828391099298</v>
       </c>
       <c r="G17">
-        <v>0.999926377614564</v>
+        <v>0.9999828391099298</v>
       </c>
       <c r="H17">
-        <v>1.000294479266341</v>
+        <v>1.000068653900346</v>
       </c>
       <c r="I17">
-        <v>1.000294479266341</v>
+        <v>1.000068653900346</v>
       </c>
       <c r="J17">
-        <v>0.999926377614564</v>
+        <v>0.9999828391099298</v>
       </c>
       <c r="K17">
-        <v>0.999926377614564</v>
+        <v>0.9999828391099298</v>
       </c>
       <c r="L17">
-        <v>0.999926377614564</v>
+        <v>0.9999828391099298</v>
       </c>
       <c r="M17">
-        <v>1.000110428440453</v>
+        <v>1.000025746505138</v>
       </c>
       <c r="N17">
-        <v>1.000110428440453</v>
+        <v>1.000025746505138</v>
       </c>
       <c r="O17">
-        <v>1.000127608485051</v>
+        <v>1.000029750787037</v>
       </c>
       <c r="P17">
-        <v>1.000049078165157</v>
+        <v>1.000011444040068</v>
       </c>
       <c r="Q17">
-        <v>1.000049078165157</v>
+        <v>1.000011444040068</v>
       </c>
       <c r="R17">
-        <v>1.000018403027508</v>
+        <v>1.000004292807534</v>
       </c>
       <c r="S17">
-        <v>1.000018403027508</v>
+        <v>1.000004292807534</v>
       </c>
       <c r="T17">
-        <v>1.000006542855149</v>
+        <v>1.000001527610045</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999607199187259</v>
+        <v>0.9999748206648856</v>
       </c>
       <c r="D18">
-        <v>1.000086412950325</v>
+        <v>1.000055371905533</v>
       </c>
       <c r="E18">
-        <v>0.9998952548885562</v>
+        <v>0.9999328652807049</v>
       </c>
       <c r="F18">
-        <v>0.9999607199187259</v>
+        <v>0.9999748206648856</v>
       </c>
       <c r="G18">
-        <v>0.9999607199187259</v>
+        <v>0.9999748206648856</v>
       </c>
       <c r="H18">
-        <v>1.000157121313644</v>
+        <v>1.000100698153536</v>
       </c>
       <c r="I18">
-        <v>1.000157121313644</v>
+        <v>1.000100698153536</v>
       </c>
       <c r="J18">
-        <v>0.9999607199187259</v>
+        <v>0.9999748206648856</v>
       </c>
       <c r="K18">
-        <v>0.9999607199187259</v>
+        <v>0.9999748206648856</v>
       </c>
       <c r="L18">
-        <v>0.9999607199187259</v>
+        <v>0.9999748206648856</v>
       </c>
       <c r="M18">
-        <v>1.000058920616185</v>
+        <v>1.000037759409211</v>
       </c>
       <c r="N18">
-        <v>1.000058920616185</v>
+        <v>1.000037759409211</v>
       </c>
       <c r="O18">
-        <v>1.000068084727565</v>
+        <v>1.000043630241318</v>
       </c>
       <c r="P18">
-        <v>1.000026187050365</v>
+        <v>1.000016779827769</v>
       </c>
       <c r="Q18">
-        <v>1.000026187050365</v>
+        <v>1.000016779827769</v>
       </c>
       <c r="R18">
-        <v>1.000009820267455</v>
+        <v>1.000006290037048</v>
       </c>
       <c r="S18">
-        <v>1.000009820267455</v>
+        <v>1.000006290037048</v>
       </c>
       <c r="T18">
-        <v>1.000003491484784</v>
+        <v>1.000002232889072</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9999590470957501</v>
+        <v>0.9999998315161485</v>
       </c>
       <c r="D19">
-        <v>1.000090098327734</v>
+        <v>1.000000371587076</v>
       </c>
       <c r="E19">
-        <v>0.9998907884784627</v>
+        <v>0.9999995533181147</v>
       </c>
       <c r="F19">
-        <v>0.9999590470957501</v>
+        <v>0.9999998315161485</v>
       </c>
       <c r="G19">
-        <v>0.9999590470957501</v>
+        <v>0.9999998315161485</v>
       </c>
       <c r="H19">
-        <v>1.000163816274678</v>
+        <v>1.00000067204983</v>
       </c>
       <c r="I19">
-        <v>1.000163816274678</v>
+        <v>1.00000067204983</v>
       </c>
       <c r="J19">
-        <v>0.9999590470957501</v>
+        <v>0.9999998315161485</v>
       </c>
       <c r="K19">
-        <v>0.9999590470957501</v>
+        <v>0.9999998315161485</v>
       </c>
       <c r="L19">
-        <v>0.9999590470957501</v>
+        <v>0.9999998315161485</v>
       </c>
       <c r="M19">
-        <v>1.000061431685214</v>
+        <v>1.000000251782989</v>
       </c>
       <c r="N19">
-        <v>1.000061431685214</v>
+        <v>1.000000251782989</v>
       </c>
       <c r="O19">
-        <v>1.000070987232721</v>
+        <v>1.000000291717685</v>
       </c>
       <c r="P19">
-        <v>1.000027303488726</v>
+        <v>1.000000111694042</v>
       </c>
       <c r="Q19">
-        <v>1.000027303488726</v>
+        <v>1.000000111694042</v>
       </c>
       <c r="R19">
-        <v>1.000010239390482</v>
+        <v>1.000000041649569</v>
       </c>
       <c r="S19">
-        <v>1.000010239390482</v>
+        <v>1.000000041649569</v>
       </c>
       <c r="T19">
-        <v>1.000003640728021</v>
+        <v>1.000000015250577</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999999802982079</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="D20">
-        <v>1.000000044221804</v>
+        <v>0.9999998005458328</v>
       </c>
       <c r="E20">
-        <v>0.9999999499695018</v>
+        <v>1.000000245197239</v>
       </c>
       <c r="F20">
-        <v>0.9999999802982079</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="G20">
-        <v>0.9999999802982079</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="H20">
-        <v>1.000000076864969</v>
+        <v>0.9999996338158822</v>
       </c>
       <c r="I20">
-        <v>1.000000076864969</v>
+        <v>0.9999996338158822</v>
       </c>
       <c r="J20">
-        <v>0.9999999802982079</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="K20">
-        <v>0.9999999802982079</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="L20">
-        <v>0.9999999802982079</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="M20">
-        <v>1.000000028581588</v>
+        <v>0.9999998623006257</v>
       </c>
       <c r="N20">
-        <v>1.000000028581588</v>
+        <v>0.9999998623006257</v>
       </c>
       <c r="O20">
-        <v>1.000000033794994</v>
+        <v>0.9999998417156947</v>
       </c>
       <c r="P20">
-        <v>1.000000012487128</v>
+        <v>0.9999999384622068</v>
       </c>
       <c r="Q20">
-        <v>1.000000012487128</v>
+        <v>0.9999999384622068</v>
       </c>
       <c r="R20">
-        <v>1.000000004439898</v>
+        <v>0.9999999765429973</v>
       </c>
       <c r="S20">
-        <v>1.000000004439898</v>
+        <v>0.9999999765429973</v>
       </c>
       <c r="T20">
-        <v>1.000000001991816</v>
+        <v>0.9999999919858436</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999995939277415</v>
+        <v>1.000000305983585</v>
       </c>
       <c r="D21">
-        <v>1.000000894821559</v>
+        <v>0.9999993273606919</v>
       </c>
       <c r="E21">
-        <v>0.9999989191671756</v>
+        <v>1.000000818427865</v>
       </c>
       <c r="F21">
-        <v>0.9999995939277415</v>
+        <v>1.000000305983585</v>
       </c>
       <c r="G21">
-        <v>0.9999995939277415</v>
+        <v>1.000000305983585</v>
       </c>
       <c r="H21">
-        <v>1.000001622991025</v>
+        <v>0.9999987758151465</v>
       </c>
       <c r="I21">
-        <v>1.000001622991025</v>
+        <v>0.9999987758151465</v>
       </c>
       <c r="J21">
-        <v>0.9999995939277415</v>
+        <v>1.000000305983585</v>
       </c>
       <c r="K21">
-        <v>0.9999995939277415</v>
+        <v>1.000000305983585</v>
       </c>
       <c r="L21">
-        <v>0.9999995939277415</v>
+        <v>1.000000305983585</v>
       </c>
       <c r="M21">
-        <v>1.000000608459383</v>
+        <v>0.9999995408993657</v>
       </c>
       <c r="N21">
-        <v>1.000000608459383</v>
+        <v>0.9999995408993657</v>
       </c>
       <c r="O21">
-        <v>1.000000703913442</v>
+        <v>0.9999994697198078</v>
       </c>
       <c r="P21">
-        <v>1.000000270282169</v>
+        <v>0.9999997959274388</v>
       </c>
       <c r="Q21">
-        <v>1.000000270282169</v>
+        <v>0.9999997959274388</v>
       </c>
       <c r="R21">
-        <v>1.000000101193562</v>
+        <v>0.9999999234414754</v>
       </c>
       <c r="S21">
-        <v>1.000000101193562</v>
+        <v>0.9999999234414754</v>
       </c>
       <c r="T21">
-        <v>1.000000036460498</v>
+        <v>0.9999999732590764</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999985711390705</v>
+        <v>1.000000462187373</v>
       </c>
       <c r="D22">
-        <v>1.000003143564702</v>
+        <v>0.9999989833757335</v>
       </c>
       <c r="E22">
-        <v>0.999996190414643</v>
+        <v>1.000001236232079</v>
       </c>
       <c r="F22">
-        <v>0.9999985711390705</v>
+        <v>1.000000462187373</v>
       </c>
       <c r="G22">
-        <v>0.9999985711390705</v>
+        <v>1.000000462187373</v>
       </c>
       <c r="H22">
-        <v>1.000005716105109</v>
+        <v>0.999998149525049</v>
       </c>
       <c r="I22">
-        <v>1.000005716105109</v>
+        <v>0.999998149525049</v>
       </c>
       <c r="J22">
-        <v>0.9999985711390705</v>
+        <v>1.000000462187373</v>
       </c>
       <c r="K22">
-        <v>0.9999985711390705</v>
+        <v>1.000000462187373</v>
       </c>
       <c r="L22">
-        <v>0.9999985711390705</v>
+        <v>1.000000462187373</v>
       </c>
       <c r="M22">
-        <v>1.00000214362209</v>
+        <v>0.999999305856211</v>
       </c>
       <c r="N22">
-        <v>1.00000214362209</v>
+        <v>0.999999305856211</v>
       </c>
       <c r="O22">
-        <v>1.000002476936294</v>
+        <v>0.9999991983627184</v>
       </c>
       <c r="P22">
-        <v>1.000000952794416</v>
+        <v>0.9999996912999317</v>
       </c>
       <c r="Q22">
-        <v>1.000000952794416</v>
+        <v>0.9999996912999317</v>
       </c>
       <c r="R22">
-        <v>1.00000035738058</v>
+        <v>0.9999998840217921</v>
       </c>
       <c r="S22">
-        <v>1.00000035738058</v>
+        <v>0.9999998840217921</v>
       </c>
       <c r="T22">
-        <v>1.000000127250277</v>
+        <v>0.9999999592824969</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000001473389495</v>
+      </c>
+      <c r="D23">
+        <v>0.9999967590757447</v>
+      </c>
+      <c r="E23">
+        <v>1.000003929609964</v>
+      </c>
+      <c r="F23">
+        <v>1.000001473389495</v>
+      </c>
+      <c r="G23">
+        <v>1.000001473389495</v>
+      </c>
+      <c r="H23">
+        <v>0.9999941056164553</v>
+      </c>
+      <c r="I23">
+        <v>0.9999941056164553</v>
+      </c>
+      <c r="J23">
+        <v>1.000001473389495</v>
+      </c>
+      <c r="K23">
+        <v>1.000001473389495</v>
+      </c>
+      <c r="L23">
+        <v>1.000001473389495</v>
+      </c>
+      <c r="M23">
+        <v>0.9999977895029752</v>
+      </c>
+      <c r="N23">
+        <v>0.9999977895029752</v>
+      </c>
+      <c r="O23">
+        <v>0.9999974460272317</v>
+      </c>
+      <c r="P23">
+        <v>0.9999990174651486</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999990174651486</v>
+      </c>
+      <c r="R23">
+        <v>0.9999996314462352</v>
+      </c>
+      <c r="S23">
+        <v>0.9999996314462352</v>
+      </c>
+      <c r="T23">
+        <v>0.9999998690784416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="D24">
+        <v>1.00020388253831</v>
+      </c>
+      <c r="E24">
+        <v>0.9997528702554451</v>
+      </c>
+      <c r="F24">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="G24">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="H24">
+        <v>1.000370698243154</v>
+      </c>
+      <c r="I24">
+        <v>1.000370698243154</v>
+      </c>
+      <c r="J24">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="K24">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="L24">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="M24">
+        <v>1.000139010237061</v>
+      </c>
+      <c r="N24">
+        <v>1.000139010237061</v>
+      </c>
+      <c r="O24">
+        <v>1.000160634337477</v>
+      </c>
+      <c r="P24">
+        <v>1.000061780901696</v>
+      </c>
+      <c r="Q24">
+        <v>1.000061780901696</v>
+      </c>
+      <c r="R24">
+        <v>1.000023166234014</v>
+      </c>
+      <c r="S24">
+        <v>1.000023166234014</v>
+      </c>
+      <c r="T24">
+        <v>1.000008236288302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="D25">
+        <v>1.000053302596141</v>
+      </c>
+      <c r="E25">
+        <v>0.999935393613998</v>
+      </c>
+      <c r="F25">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="G25">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="H25">
+        <v>1.000096907769418</v>
+      </c>
+      <c r="I25">
+        <v>1.000096907769418</v>
+      </c>
+      <c r="J25">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="K25">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="L25">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="M25">
+        <v>1.000036341931367</v>
+      </c>
+      <c r="N25">
+        <v>1.000036341931367</v>
+      </c>
+      <c r="O25">
+        <v>1.000041995486292</v>
+      </c>
+      <c r="P25">
+        <v>1.000016153318684</v>
+      </c>
+      <c r="Q25">
+        <v>1.000016153318684</v>
+      </c>
+      <c r="R25">
+        <v>1.000006059012342</v>
+      </c>
+      <c r="S25">
+        <v>1.000006059012342</v>
+      </c>
+      <c r="T25">
+        <v>1.000002155376585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="D26">
+        <v>1.000510167563672</v>
+      </c>
+      <c r="E26">
+        <v>0.99938161847076</v>
+      </c>
+      <c r="F26">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="G26">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="H26">
+        <v>1.000927579456783</v>
+      </c>
+      <c r="I26">
+        <v>1.000927579456783</v>
+      </c>
+      <c r="J26">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="K26">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="L26">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="M26">
+        <v>1.000347843109658</v>
+      </c>
+      <c r="N26">
+        <v>1.000347843109658</v>
+      </c>
+      <c r="O26">
+        <v>1.000401951260996</v>
+      </c>
+      <c r="P26">
+        <v>1.000154597660616</v>
+      </c>
+      <c r="Q26">
+        <v>1.000154597660616</v>
+      </c>
+      <c r="R26">
+        <v>1.000057974936095</v>
+      </c>
+      <c r="S26">
+        <v>1.000057974936095</v>
+      </c>
+      <c r="T26">
+        <v>1.000020614296469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="D27">
+        <v>1.000139159407399</v>
+      </c>
+      <c r="E27">
+        <v>0.9998313272358839</v>
+      </c>
+      <c r="F27">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="G27">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="H27">
+        <v>1.000253014939221</v>
+      </c>
+      <c r="I27">
+        <v>1.000253014939221</v>
+      </c>
+      <c r="J27">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="K27">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="L27">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="M27">
+        <v>1.000094880643016</v>
+      </c>
+      <c r="N27">
+        <v>1.000094880643016</v>
+      </c>
+      <c r="O27">
+        <v>1.000109640231144</v>
+      </c>
+      <c r="P27">
+        <v>1.000042169210947</v>
+      </c>
+      <c r="Q27">
+        <v>1.000042169210947</v>
+      </c>
+      <c r="R27">
+        <v>1.000015813494913</v>
+      </c>
+      <c r="S27">
+        <v>1.000015813494913</v>
+      </c>
+      <c r="T27">
+        <v>1.000005623437156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9999096156133691</v>
+      </c>
+      <c r="D28">
+        <v>1.000198845303214</v>
+      </c>
+      <c r="E28">
+        <v>0.9997589784948435</v>
+      </c>
+      <c r="F28">
+        <v>0.9999096156133691</v>
+      </c>
+      <c r="G28">
+        <v>0.9999096156133691</v>
+      </c>
+      <c r="H28">
+        <v>1.000361522410699</v>
+      </c>
+      <c r="I28">
+        <v>1.000361522410699</v>
+      </c>
+      <c r="J28">
+        <v>0.9999096156133691</v>
+      </c>
+      <c r="K28">
+        <v>0.9999096156133691</v>
+      </c>
+      <c r="L28">
+        <v>0.9999096156133691</v>
+      </c>
+      <c r="M28">
+        <v>1.000135569012034</v>
+      </c>
+      <c r="N28">
+        <v>1.000135569012034</v>
+      </c>
+      <c r="O28">
+        <v>1.000156661109094</v>
+      </c>
+      <c r="P28">
+        <v>1.000060251212479</v>
+      </c>
+      <c r="Q28">
+        <v>1.000060251212479</v>
+      </c>
+      <c r="R28">
+        <v>1.000022592312701</v>
+      </c>
+      <c r="S28">
+        <v>1.000022592312701</v>
+      </c>
+      <c r="T28">
+        <v>1.00000803217481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.999926377614564</v>
+      </c>
+      <c r="D29">
+        <v>1.000161968574247</v>
+      </c>
+      <c r="E29">
+        <v>0.9998036764466121</v>
+      </c>
+      <c r="F29">
+        <v>0.999926377614564</v>
+      </c>
+      <c r="G29">
+        <v>0.999926377614564</v>
+      </c>
+      <c r="H29">
+        <v>1.000294479266341</v>
+      </c>
+      <c r="I29">
+        <v>1.000294479266341</v>
+      </c>
+      <c r="J29">
+        <v>0.999926377614564</v>
+      </c>
+      <c r="K29">
+        <v>0.999926377614564</v>
+      </c>
+      <c r="L29">
+        <v>0.999926377614564</v>
+      </c>
+      <c r="M29">
+        <v>1.000110428440453</v>
+      </c>
+      <c r="N29">
+        <v>1.000110428440453</v>
+      </c>
+      <c r="O29">
+        <v>1.000127608485051</v>
+      </c>
+      <c r="P29">
+        <v>1.000049078165157</v>
+      </c>
+      <c r="Q29">
+        <v>1.000049078165157</v>
+      </c>
+      <c r="R29">
+        <v>1.000018403027508</v>
+      </c>
+      <c r="S29">
+        <v>1.000018403027508</v>
+      </c>
+      <c r="T29">
+        <v>1.000006542855149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9999607199187259</v>
+      </c>
+      <c r="D30">
+        <v>1.000086412950325</v>
+      </c>
+      <c r="E30">
+        <v>0.9998952548885562</v>
+      </c>
+      <c r="F30">
+        <v>0.9999607199187259</v>
+      </c>
+      <c r="G30">
+        <v>0.9999607199187259</v>
+      </c>
+      <c r="H30">
+        <v>1.000157121313644</v>
+      </c>
+      <c r="I30">
+        <v>1.000157121313644</v>
+      </c>
+      <c r="J30">
+        <v>0.9999607199187259</v>
+      </c>
+      <c r="K30">
+        <v>0.9999607199187259</v>
+      </c>
+      <c r="L30">
+        <v>0.9999607199187259</v>
+      </c>
+      <c r="M30">
+        <v>1.000058920616185</v>
+      </c>
+      <c r="N30">
+        <v>1.000058920616185</v>
+      </c>
+      <c r="O30">
+        <v>1.000068084727565</v>
+      </c>
+      <c r="P30">
+        <v>1.000026187050365</v>
+      </c>
+      <c r="Q30">
+        <v>1.000026187050365</v>
+      </c>
+      <c r="R30">
+        <v>1.000009820267455</v>
+      </c>
+      <c r="S30">
+        <v>1.000009820267455</v>
+      </c>
+      <c r="T30">
+        <v>1.000003491484784</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="D31">
+        <v>1.000090098327734</v>
+      </c>
+      <c r="E31">
+        <v>0.9998907884784627</v>
+      </c>
+      <c r="F31">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="G31">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="H31">
+        <v>1.000163816274678</v>
+      </c>
+      <c r="I31">
+        <v>1.000163816274678</v>
+      </c>
+      <c r="J31">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="K31">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="L31">
+        <v>0.9999590470957501</v>
+      </c>
+      <c r="M31">
+        <v>1.000061431685214</v>
+      </c>
+      <c r="N31">
+        <v>1.000061431685214</v>
+      </c>
+      <c r="O31">
+        <v>1.000070987232721</v>
+      </c>
+      <c r="P31">
+        <v>1.000027303488726</v>
+      </c>
+      <c r="Q31">
+        <v>1.000027303488726</v>
+      </c>
+      <c r="R31">
+        <v>1.000010239390482</v>
+      </c>
+      <c r="S31">
+        <v>1.000010239390482</v>
+      </c>
+      <c r="T31">
+        <v>1.000003640728021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9999081668493154</v>
+      </c>
+      <c r="D32">
+        <v>1.000202032191781</v>
+      </c>
+      <c r="E32">
+        <v>0.9997551167123293</v>
+      </c>
+      <c r="F32">
+        <v>0.9999081668493154</v>
+      </c>
+      <c r="G32">
+        <v>0.9999081668493154</v>
+      </c>
+      <c r="H32">
+        <v>1.000367311506849</v>
+      </c>
+      <c r="I32">
+        <v>1.000367311506849</v>
+      </c>
+      <c r="J32">
+        <v>0.9999081668493154</v>
+      </c>
+      <c r="K32">
+        <v>0.9999081668493154</v>
+      </c>
+      <c r="L32">
+        <v>0.9999081668493154</v>
+      </c>
+      <c r="M32">
+        <v>1.000137739178082</v>
+      </c>
+      <c r="N32">
+        <v>1.000137739178082</v>
+      </c>
+      <c r="O32">
+        <v>1.000159170182648</v>
+      </c>
+      <c r="P32">
+        <v>1.000061215068493</v>
+      </c>
+      <c r="Q32">
+        <v>1.000061215068493</v>
+      </c>
+      <c r="R32">
+        <v>1.000022953013699</v>
+      </c>
+      <c r="S32">
+        <v>1.000022953013699</v>
+      </c>
+      <c r="T32">
+        <v>1.000008160159817</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000398363157895</v>
+      </c>
+      <c r="D33">
+        <v>0.9991235978947368</v>
+      </c>
+      <c r="E33">
+        <v>1.001062303157895</v>
+      </c>
+      <c r="F33">
+        <v>1.000398363157895</v>
+      </c>
+      <c r="G33">
+        <v>1.000398363157895</v>
+      </c>
+      <c r="H33">
+        <v>0.9984065526315791</v>
+      </c>
+      <c r="I33">
+        <v>0.9984065526315791</v>
+      </c>
+      <c r="J33">
+        <v>1.000398363157895</v>
+      </c>
+      <c r="K33">
+        <v>1.000398363157895</v>
+      </c>
+      <c r="L33">
+        <v>1.000398363157895</v>
+      </c>
+      <c r="M33">
+        <v>0.9994024578947369</v>
+      </c>
+      <c r="N33">
+        <v>0.9994024578947369</v>
+      </c>
+      <c r="O33">
+        <v>0.9993095045614035</v>
+      </c>
+      <c r="P33">
+        <v>0.9997344263157896</v>
+      </c>
+      <c r="Q33">
+        <v>0.9997344263157896</v>
+      </c>
+      <c r="R33">
+        <v>0.9999004105263158</v>
+      </c>
+      <c r="S33">
+        <v>0.9999004105263158</v>
+      </c>
+      <c r="T33">
+        <v>0.9999645905263158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="D34">
+        <v>0.9985133868421052</v>
+      </c>
+      <c r="E34">
+        <v>1.001801949473684</v>
+      </c>
+      <c r="F34">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="G34">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="H34">
+        <v>0.9972970689473682</v>
+      </c>
+      <c r="I34">
+        <v>0.9972970689473682</v>
+      </c>
+      <c r="J34">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="K34">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="L34">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="M34">
+        <v>0.9989864015789474</v>
+      </c>
+      <c r="N34">
+        <v>0.9989864015789474</v>
+      </c>
+      <c r="O34">
+        <v>0.9988287299999999</v>
+      </c>
+      <c r="P34">
+        <v>0.9995495124561403</v>
+      </c>
+      <c r="Q34">
+        <v>0.9995495124561403</v>
+      </c>
+      <c r="R34">
+        <v>0.9998310678947369</v>
+      </c>
+      <c r="S34">
+        <v>0.9998310678947369</v>
+      </c>
+      <c r="T34">
+        <v>0.9999399346491228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9998371828182898</v>
+      </c>
+      <c r="D35">
+        <v>1.000358175293824</v>
+      </c>
+      <c r="E35">
+        <v>0.9995658245880339</v>
+      </c>
+      <c r="F35">
+        <v>0.9998371828182898</v>
+      </c>
+      <c r="G35">
+        <v>0.9998371828182898</v>
+      </c>
+      <c r="H35">
+        <v>1.000651278723092</v>
+      </c>
+      <c r="I35">
+        <v>1.000651278723092</v>
+      </c>
+      <c r="J35">
+        <v>0.9998371828182898</v>
+      </c>
+      <c r="K35">
+        <v>0.9998371828182898</v>
+      </c>
+      <c r="L35">
+        <v>0.9998371828182898</v>
+      </c>
+      <c r="M35">
+        <v>1.000244230770691</v>
+      </c>
+      <c r="N35">
+        <v>1.000244230770691</v>
+      </c>
+      <c r="O35">
+        <v>1.000282212278402</v>
+      </c>
+      <c r="P35">
+        <v>1.000108548119891</v>
+      </c>
+      <c r="Q35">
+        <v>1.000108548119891</v>
+      </c>
+      <c r="R35">
+        <v>1.00004070679449</v>
+      </c>
+      <c r="S35">
+        <v>1.00004070679449</v>
+      </c>
+      <c r="T35">
+        <v>1.000014471176637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="D36">
+        <v>1.000000044221804</v>
+      </c>
+      <c r="E36">
+        <v>0.9999999499695018</v>
+      </c>
+      <c r="F36">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="G36">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="H36">
+        <v>1.000000076864969</v>
+      </c>
+      <c r="I36">
+        <v>1.000000076864969</v>
+      </c>
+      <c r="J36">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="K36">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="L36">
+        <v>0.9999999802982079</v>
+      </c>
+      <c r="M36">
+        <v>1.000000028581588</v>
+      </c>
+      <c r="N36">
+        <v>1.000000028581588</v>
+      </c>
+      <c r="O36">
+        <v>1.000000033794994</v>
+      </c>
+      <c r="P36">
+        <v>1.000000012487128</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000012487128</v>
+      </c>
+      <c r="R36">
+        <v>1.000000004439898</v>
+      </c>
+      <c r="S36">
+        <v>1.000000004439898</v>
+      </c>
+      <c r="T36">
+        <v>1.000000001991816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="D37">
+        <v>1.000000894821559</v>
+      </c>
+      <c r="E37">
+        <v>0.9999989191671756</v>
+      </c>
+      <c r="F37">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="G37">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="H37">
+        <v>1.000001622991025</v>
+      </c>
+      <c r="I37">
+        <v>1.000001622991025</v>
+      </c>
+      <c r="J37">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="K37">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="L37">
+        <v>0.9999995939277415</v>
+      </c>
+      <c r="M37">
+        <v>1.000000608459383</v>
+      </c>
+      <c r="N37">
+        <v>1.000000608459383</v>
+      </c>
+      <c r="O37">
+        <v>1.000000703913442</v>
+      </c>
+      <c r="P37">
+        <v>1.000000270282169</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000270282169</v>
+      </c>
+      <c r="R37">
+        <v>1.000000101193562</v>
+      </c>
+      <c r="S37">
+        <v>1.000000101193562</v>
+      </c>
+      <c r="T37">
+        <v>1.000000036460498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="D38">
+        <v>1.000003143564702</v>
+      </c>
+      <c r="E38">
+        <v>0.999996190414643</v>
+      </c>
+      <c r="F38">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="G38">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="H38">
+        <v>1.000005716105109</v>
+      </c>
+      <c r="I38">
+        <v>1.000005716105109</v>
+      </c>
+      <c r="J38">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="K38">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="L38">
+        <v>0.9999985711390705</v>
+      </c>
+      <c r="M38">
+        <v>1.00000214362209</v>
+      </c>
+      <c r="N38">
+        <v>1.00000214362209</v>
+      </c>
+      <c r="O38">
+        <v>1.000002476936294</v>
+      </c>
+      <c r="P38">
+        <v>1.000000952794416</v>
+      </c>
+      <c r="Q38">
+        <v>1.000000952794416</v>
+      </c>
+      <c r="R38">
+        <v>1.00000035738058</v>
+      </c>
+      <c r="S38">
+        <v>1.00000035738058</v>
+      </c>
+      <c r="T38">
+        <v>1.000000127250277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999966540202004</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000007362897272</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9999910766302579</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999966540202004</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9999966540202004</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000013388024186</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000013388024186</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9999966540202004</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999966540202004</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999966540202004</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000005021022193</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000005021022193</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000005801647219</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000002232021529</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000002232021529</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000000837521197</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000000837521197</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.00000029826872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000253588620126</v>
+      </c>
+      <c r="D40">
+        <v>0.9994421055661601</v>
+      </c>
+      <c r="E40">
+        <v>1.000676239334453</v>
+      </c>
+      <c r="F40">
+        <v>1.000253588620126</v>
+      </c>
+      <c r="G40">
+        <v>1.000253588620126</v>
+      </c>
+      <c r="H40">
+        <v>0.9989856428938787</v>
+      </c>
+      <c r="I40">
+        <v>0.9989856428938787</v>
+      </c>
+      <c r="J40">
+        <v>1.000253588620126</v>
+      </c>
+      <c r="K40">
+        <v>1.000253588620126</v>
+      </c>
+      <c r="L40">
+        <v>1.000253588620126</v>
+      </c>
+      <c r="M40">
+        <v>0.9996196157570025</v>
+      </c>
+      <c r="N40">
+        <v>0.9996196157570025</v>
+      </c>
+      <c r="O40">
+        <v>0.9995604456933883</v>
+      </c>
+      <c r="P40">
+        <v>0.9998309400447104</v>
+      </c>
+      <c r="Q40">
+        <v>0.9998309400447104</v>
+      </c>
+      <c r="R40">
+        <v>0.9999366021885644</v>
+      </c>
+      <c r="S40">
+        <v>0.9999366021885644</v>
+      </c>
+      <c r="T40">
+        <v>0.9999774589424785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999723391405833</v>
+      </c>
+      <c r="D41">
+        <v>1.000060853277775</v>
+      </c>
+      <c r="E41">
+        <v>0.9999262437289933</v>
+      </c>
+      <c r="F41">
+        <v>0.9999723391405833</v>
+      </c>
+      <c r="G41">
+        <v>0.9999723391405833</v>
+      </c>
+      <c r="H41">
+        <v>1.000110637426218</v>
+      </c>
+      <c r="I41">
+        <v>1.000110637426218</v>
+      </c>
+      <c r="J41">
+        <v>0.9999723391405833</v>
+      </c>
+      <c r="K41">
+        <v>0.9999723391405833</v>
+      </c>
+      <c r="L41">
+        <v>0.9999723391405833</v>
+      </c>
+      <c r="M41">
+        <v>1.000041488283401</v>
+      </c>
+      <c r="N41">
+        <v>1.000041488283401</v>
+      </c>
+      <c r="O41">
+        <v>1.000047943281525</v>
+      </c>
+      <c r="P41">
+        <v>1.000018438569128</v>
+      </c>
+      <c r="Q41">
+        <v>1.000018438569128</v>
+      </c>
+      <c r="R41">
+        <v>1.000006913711992</v>
+      </c>
+      <c r="S41">
+        <v>1.000006913711992</v>
+      </c>
+      <c r="T41">
+        <v>1.000002458642456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000024033708461</v>
+      </c>
+      <c r="D42">
+        <v>0.999947125301769</v>
+      </c>
+      <c r="E42">
+        <v>1.000064094394012</v>
+      </c>
+      <c r="F42">
+        <v>1.000024033708461</v>
+      </c>
+      <c r="G42">
+        <v>1.000024033708461</v>
+      </c>
+      <c r="H42">
+        <v>0.9999038609076328</v>
+      </c>
+      <c r="I42">
+        <v>0.9999038609076328</v>
+      </c>
+      <c r="J42">
+        <v>1.000024033708461</v>
+      </c>
+      <c r="K42">
+        <v>1.000024033708461</v>
+      </c>
+      <c r="L42">
+        <v>1.000024033708461</v>
+      </c>
+      <c r="M42">
+        <v>0.9999639473080468</v>
+      </c>
+      <c r="N42">
+        <v>0.9999639473080468</v>
+      </c>
+      <c r="O42">
+        <v>0.999958339972621</v>
+      </c>
+      <c r="P42">
+        <v>0.9999839761081848</v>
+      </c>
+      <c r="Q42">
+        <v>0.9999839761081848</v>
+      </c>
+      <c r="R42">
+        <v>0.9999939905082538</v>
+      </c>
+      <c r="S42">
+        <v>0.9999939905082538</v>
+      </c>
+      <c r="T42">
+        <v>0.9999978636214659</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999953599938179</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="D3">
-        <v>1.00001855686838</v>
+        <v>0.9999998005458328</v>
       </c>
       <c r="E3">
-        <v>0.9999953599938179</v>
+        <v>1.000000245197239</v>
       </c>
       <c r="F3">
-        <v>0.9999953599938179</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="G3">
-        <v>0.9999876298111298</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="H3">
-        <v>1.000010208680536</v>
+        <v>0.9999996338158822</v>
       </c>
       <c r="I3">
-        <v>0.9999953599938179</v>
+        <v>0.9999996338158822</v>
       </c>
       <c r="J3">
-        <v>1.00001855686838</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="K3">
-        <v>0.9999953599938179</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="L3">
-        <v>0.9999953599938179</v>
+        <v>1.000000090785369</v>
       </c>
       <c r="M3">
-        <v>1.000006958431099</v>
+        <v>0.9999998623006257</v>
       </c>
       <c r="N3">
-        <v>1.000006958431099</v>
+        <v>0.9999998623006257</v>
       </c>
       <c r="O3">
-        <v>1.000008041847578</v>
+        <v>0.9999998417156947</v>
       </c>
       <c r="P3">
-        <v>1.000003092285339</v>
+        <v>0.9999999384622068</v>
       </c>
       <c r="Q3">
-        <v>1.000003092285339</v>
+        <v>0.9999999384622068</v>
       </c>
       <c r="R3">
-        <v>1.000001159212458</v>
+        <v>0.9999999765429973</v>
       </c>
       <c r="S3">
-        <v>1.000001159212458</v>
+        <v>0.9999999765429973</v>
       </c>
       <c r="T3">
-        <v>1.000000412556916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999999919858436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999910431493483</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="D4">
-        <v>1.000035823509013</v>
+        <v>0.9994421055661601</v>
       </c>
       <c r="E4">
-        <v>0.9999910431493483</v>
+        <v>1.000676239334453</v>
       </c>
       <c r="F4">
-        <v>0.9999910431493483</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="G4">
-        <v>0.9999761180834329</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="H4">
-        <v>1.000019704778302</v>
+        <v>0.9989856428938787</v>
       </c>
       <c r="I4">
-        <v>0.9999910431493483</v>
+        <v>0.9989856428938787</v>
       </c>
       <c r="J4">
-        <v>1.000035823509013</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="K4">
-        <v>0.9999910431493483</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="L4">
-        <v>0.9999910431493483</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="M4">
-        <v>1.00001343332918</v>
+        <v>0.9996196157570025</v>
       </c>
       <c r="N4">
-        <v>1.00001343332918</v>
+        <v>0.9996196157570025</v>
       </c>
       <c r="O4">
-        <v>1.000015523812221</v>
+        <v>0.9995604456933883</v>
       </c>
       <c r="P4">
-        <v>1.000005969935903</v>
+        <v>0.9998309400447104</v>
       </c>
       <c r="Q4">
-        <v>1.000005969935903</v>
+        <v>0.9998309400447104</v>
       </c>
       <c r="R4">
-        <v>1.000002238239264</v>
+        <v>0.9999366021885644</v>
       </c>
       <c r="S4">
-        <v>1.000002238239264</v>
+        <v>0.9999366021885644</v>
       </c>
       <c r="T4">
-        <v>1.000000795969799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999774589424785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9999828391099298</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="D5">
-        <v>1.000068653900346</v>
+        <v>1.000084979762251</v>
       </c>
       <c r="E5">
-        <v>0.9999828391099298</v>
+        <v>0.9998969928962534</v>
       </c>
       <c r="F5">
-        <v>0.9999828391099298</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="G5">
-        <v>0.9999542350792976</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="H5">
-        <v>1.000037759350836</v>
+        <v>1.000154512384722</v>
       </c>
       <c r="I5">
-        <v>0.9999828391099298</v>
+        <v>1.000154512384722</v>
       </c>
       <c r="J5">
-        <v>1.000068653900346</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="K5">
-        <v>0.9999828391099298</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="L5">
-        <v>0.9999828391099298</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="M5">
-        <v>1.000025746505138</v>
+        <v>1.000057942103744</v>
       </c>
       <c r="N5">
-        <v>1.000025746505138</v>
+        <v>1.000057942103744</v>
       </c>
       <c r="O5">
-        <v>1.000029750787037</v>
+        <v>1.00006695465658</v>
       </c>
       <c r="P5">
-        <v>1.000011444040068</v>
+        <v>1.000025752010085</v>
       </c>
       <c r="Q5">
-        <v>1.000011444040068</v>
+        <v>1.000025752010085</v>
       </c>
       <c r="R5">
-        <v>1.000004292807534</v>
+        <v>1.000009656963255</v>
       </c>
       <c r="S5">
-        <v>1.000004292807534</v>
+        <v>1.000009656963255</v>
       </c>
       <c r="T5">
-        <v>1.000001527610045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000003433418587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9999748206648856</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="D6">
-        <v>1.000100698153536</v>
+        <v>1.000358175293824</v>
       </c>
       <c r="E6">
-        <v>0.9999748206648856</v>
+        <v>0.9995658245880339</v>
       </c>
       <c r="F6">
-        <v>0.9999748206648856</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="G6">
-        <v>0.9999328652807049</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="H6">
-        <v>1.000055371905533</v>
+        <v>1.000651278723092</v>
       </c>
       <c r="I6">
-        <v>0.9999748206648856</v>
+        <v>1.000651278723092</v>
       </c>
       <c r="J6">
-        <v>1.000100698153536</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="K6">
-        <v>0.9999748206648856</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="L6">
-        <v>0.9999748206648856</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="M6">
-        <v>1.000037759409211</v>
+        <v>1.000244230770691</v>
       </c>
       <c r="N6">
-        <v>1.000037759409211</v>
+        <v>1.000244230770691</v>
       </c>
       <c r="O6">
-        <v>1.000043630241318</v>
+        <v>1.000282212278402</v>
       </c>
       <c r="P6">
-        <v>1.000016779827769</v>
+        <v>1.000108548119891</v>
       </c>
       <c r="Q6">
-        <v>1.000016779827769</v>
+        <v>1.000108548119891</v>
       </c>
       <c r="R6">
-        <v>1.000006290037048</v>
+        <v>1.00004070679449</v>
       </c>
       <c r="S6">
-        <v>1.000006290037048</v>
+        <v>1.00004070679449</v>
       </c>
       <c r="T6">
-        <v>1.000002232889072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000014471176637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999998315161485</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="D7">
-        <v>1.00000067204983</v>
+        <v>1.000004492020708</v>
       </c>
       <c r="E7">
-        <v>0.9999998315161485</v>
+        <v>0.9999945589480972</v>
       </c>
       <c r="F7">
-        <v>0.9999998315161485</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="G7">
-        <v>0.9999995533181147</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="H7">
-        <v>1.000000371587076</v>
+        <v>1.000008162352322</v>
       </c>
       <c r="I7">
-        <v>0.9999998315161485</v>
+        <v>1.000008162352322</v>
       </c>
       <c r="J7">
-        <v>1.00000067204983</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="K7">
-        <v>0.9999998315161485</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="L7">
-        <v>0.9999998315161485</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="M7">
-        <v>1.000000251782989</v>
+        <v>1.000003060218702</v>
       </c>
       <c r="N7">
-        <v>1.000000251782989</v>
+        <v>1.000003060218702</v>
       </c>
       <c r="O7">
-        <v>1.000000291717685</v>
+        <v>1.000003537486037</v>
       </c>
       <c r="P7">
-        <v>1.000000111694042</v>
+        <v>1.000001359507495</v>
       </c>
       <c r="Q7">
-        <v>1.000000111694042</v>
+        <v>1.000001359507495</v>
       </c>
       <c r="R7">
-        <v>1.000000041649569</v>
+        <v>1.000000509151891</v>
       </c>
       <c r="S7">
-        <v>1.000000041649569</v>
+        <v>1.000000509151891</v>
       </c>
       <c r="T7">
-        <v>1.000000015250577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000000181262729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000000090785369</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="D8">
-        <v>0.999999633815882</v>
+        <v>1.000000894821559</v>
       </c>
       <c r="E8">
-        <v>1.000000090785369</v>
+        <v>0.9999989191671756</v>
       </c>
       <c r="F8">
-        <v>1.000000090785369</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="G8">
-        <v>1.000000245197239</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="H8">
-        <v>0.9999998005458328</v>
+        <v>1.000001622991025</v>
       </c>
       <c r="I8">
-        <v>1.000000090785369</v>
+        <v>1.000001622991025</v>
       </c>
       <c r="J8">
-        <v>0.999999633815882</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="K8">
-        <v>1.000000090785369</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="L8">
-        <v>1.000000090785369</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="M8">
-        <v>0.9999998623006254</v>
+        <v>1.000000608459383</v>
       </c>
       <c r="N8">
-        <v>0.9999998623006254</v>
+        <v>1.000000608459383</v>
       </c>
       <c r="O8">
-        <v>0.9999998417156947</v>
+        <v>1.000000703913442</v>
       </c>
       <c r="P8">
-        <v>0.9999999384622066</v>
+        <v>1.000000270282169</v>
       </c>
       <c r="Q8">
-        <v>0.9999999384622066</v>
+        <v>1.000000270282169</v>
       </c>
       <c r="R8">
-        <v>0.9999999765429972</v>
+        <v>1.000000101193562</v>
       </c>
       <c r="S8">
-        <v>0.9999999765429972</v>
+        <v>1.000000101193562</v>
       </c>
       <c r="T8">
-        <v>0.9999999919858436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000000036460498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000000305983585</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="D9">
-        <v>0.9999987758151465</v>
+        <v>1.000019704778302</v>
       </c>
       <c r="E9">
-        <v>1.000000305983585</v>
+        <v>0.9999761180834331</v>
       </c>
       <c r="F9">
-        <v>1.000000305983585</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="G9">
-        <v>1.000000818427865</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="H9">
-        <v>0.9999993273606919</v>
+        <v>1.000035823509013</v>
       </c>
       <c r="I9">
-        <v>1.000000305983585</v>
+        <v>1.000035823509013</v>
       </c>
       <c r="J9">
-        <v>0.9999987758151465</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="K9">
-        <v>1.000000305983585</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="L9">
-        <v>1.000000305983585</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="M9">
-        <v>0.9999995408993657</v>
+        <v>1.00001343332918</v>
       </c>
       <c r="N9">
-        <v>0.9999995408993657</v>
+        <v>1.00001343332918</v>
       </c>
       <c r="O9">
-        <v>0.9999994697198078</v>
+        <v>1.000015523812221</v>
       </c>
       <c r="P9">
-        <v>0.9999997959274388</v>
+        <v>1.000005969935903</v>
       </c>
       <c r="Q9">
-        <v>0.9999997959274388</v>
+        <v>1.000005969935903</v>
       </c>
       <c r="R9">
-        <v>0.9999999234414754</v>
+        <v>1.000002238239264</v>
       </c>
       <c r="S9">
-        <v>0.9999999234414754</v>
+        <v>1.000002238239264</v>
       </c>
       <c r="T9">
-        <v>0.9999999732590764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000000795969799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000000462187373</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="D10">
-        <v>0.999998149525049</v>
+        <v>1.000363548215615</v>
       </c>
       <c r="E10">
-        <v>1.000000462187373</v>
+        <v>0.9995593108408519</v>
       </c>
       <c r="F10">
-        <v>1.000000462187373</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="G10">
-        <v>1.000001236232079</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="H10">
-        <v>0.9999989833757335</v>
+        <v>1.000661048732806</v>
       </c>
       <c r="I10">
-        <v>1.000000462187373</v>
+        <v>1.000661048732806</v>
       </c>
       <c r="J10">
-        <v>0.999998149525049</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="K10">
-        <v>1.000000462187373</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="L10">
-        <v>1.000000462187373</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="M10">
-        <v>0.999999305856211</v>
+        <v>1.000247894740924</v>
       </c>
       <c r="N10">
-        <v>0.999999305856211</v>
+        <v>1.000247894740924</v>
       </c>
       <c r="O10">
-        <v>0.9999991983627184</v>
+        <v>1.000286445899154</v>
       </c>
       <c r="P10">
-        <v>0.9999996912999317</v>
+        <v>1.00011017674363</v>
       </c>
       <c r="Q10">
-        <v>0.9999996912999317</v>
+        <v>1.00011017674363</v>
       </c>
       <c r="R10">
-        <v>0.9999998840217921</v>
+        <v>1.000041317744983</v>
       </c>
       <c r="S10">
-        <v>0.9999998840217921</v>
+        <v>1.000041317744983</v>
       </c>
       <c r="T10">
-        <v>0.9999999592824969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.0000146883394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000001473389495</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="D11">
-        <v>0.9999941056164553</v>
+        <v>0.9995835325477828</v>
       </c>
       <c r="E11">
-        <v>1.000001473389495</v>
+        <v>1.00050481415281</v>
       </c>
       <c r="F11">
-        <v>1.000001473389495</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="G11">
-        <v>1.000003929609964</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="H11">
-        <v>0.9999967590757447</v>
+        <v>0.9992427821117049</v>
       </c>
       <c r="I11">
-        <v>1.000001473389495</v>
+        <v>0.9992427821117049</v>
       </c>
       <c r="J11">
-        <v>0.9999941056164553</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="K11">
-        <v>1.000001473389495</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="L11">
-        <v>1.000001473389495</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="M11">
-        <v>0.9999977895029752</v>
+        <v>0.9997160426305721</v>
       </c>
       <c r="N11">
-        <v>0.9999977895029752</v>
+        <v>0.9997160426305721</v>
       </c>
       <c r="O11">
-        <v>0.9999974460272317</v>
+        <v>0.9996718726029757</v>
       </c>
       <c r="P11">
-        <v>0.9999990174651486</v>
+        <v>0.9998737961368612</v>
       </c>
       <c r="Q11">
-        <v>0.9999990174651486</v>
+        <v>0.9998737961368612</v>
       </c>
       <c r="R11">
-        <v>0.9999996314462352</v>
+        <v>0.9999526728900057</v>
       </c>
       <c r="S11">
-        <v>0.9999996314462352</v>
+        <v>0.9999526728900057</v>
       </c>
       <c r="T11">
-        <v>0.9999998690784416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.999983173043436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9999073222309677</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="D12">
-        <v>1.000370698243153</v>
+        <v>1.000092812305265</v>
       </c>
       <c r="E12">
-        <v>0.9999073222309677</v>
+        <v>0.9998874965684197</v>
       </c>
       <c r="F12">
-        <v>0.9999073222309677</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="G12">
-        <v>0.999752870255445</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="H12">
-        <v>1.00020388253831</v>
+        <v>1.000168756673681</v>
       </c>
       <c r="I12">
-        <v>0.9999073222309677</v>
+        <v>1.000168756673681</v>
       </c>
       <c r="J12">
-        <v>1.000370698243153</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="K12">
-        <v>0.9999073222309677</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="L12">
-        <v>0.9999073222309677</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="M12">
-        <v>1.000139010237061</v>
+        <v>1.000063284194734</v>
       </c>
       <c r="N12">
-        <v>1.000139010237061</v>
+        <v>1.000063284194734</v>
       </c>
       <c r="O12">
-        <v>1.000160634337477</v>
+        <v>1.000073126898245</v>
       </c>
       <c r="P12">
-        <v>1.000061780901696</v>
+        <v>1.000028126701752</v>
       </c>
       <c r="Q12">
-        <v>1.000061780901696</v>
+        <v>1.000028126701752</v>
       </c>
       <c r="R12">
-        <v>1.000023166234014</v>
+        <v>1.000010547955261</v>
       </c>
       <c r="S12">
-        <v>1.000023166234014</v>
+        <v>1.000010547955261</v>
       </c>
       <c r="T12">
-        <v>1.000008236288302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000003750115788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.999975776093317</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="D13">
-        <v>1.000096907769417</v>
+        <v>0.9999284978645003</v>
       </c>
       <c r="E13">
-        <v>0.999975776093317</v>
+        <v>1.000086672060078</v>
       </c>
       <c r="F13">
-        <v>0.999975776093317</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="G13">
-        <v>0.999935393613998</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="H13">
-        <v>1.000053302596141</v>
+        <v>0.9998699909465619</v>
       </c>
       <c r="I13">
-        <v>0.999975776093317</v>
+        <v>0.9998699909465619</v>
       </c>
       <c r="J13">
-        <v>1.000096907769417</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="K13">
-        <v>0.999975776093317</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="L13">
-        <v>0.999975776093317</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="M13">
-        <v>1.000036341931367</v>
+        <v>0.9999512472204113</v>
       </c>
       <c r="N13">
-        <v>1.000036341931367</v>
+        <v>0.9999512472204113</v>
       </c>
       <c r="O13">
-        <v>1.000041995486292</v>
+        <v>0.9999436641017744</v>
       </c>
       <c r="P13">
-        <v>1.000016153318684</v>
+        <v>0.9999783326450279</v>
       </c>
       <c r="Q13">
-        <v>1.000016153318684</v>
+        <v>0.9999783326450279</v>
       </c>
       <c r="R13">
-        <v>1.000006059012342</v>
+        <v>0.999991875357336</v>
       </c>
       <c r="S13">
-        <v>1.000006059012342</v>
+        <v>0.999991875357336</v>
       </c>
       <c r="T13">
-        <v>1.000002155376585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9999971118923203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9997681067625329</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="D14">
-        <v>1.000927579456783</v>
+        <v>1.0006281</v>
       </c>
       <c r="E14">
-        <v>0.9997681067625329</v>
+        <v>0.9992386200000002</v>
       </c>
       <c r="F14">
-        <v>0.9997681067625329</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="G14">
-        <v>0.99938161847076</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="H14">
-        <v>1.000510167563672</v>
+        <v>1.0011421</v>
       </c>
       <c r="I14">
-        <v>0.9997681067625329</v>
+        <v>1.0011421</v>
       </c>
       <c r="J14">
-        <v>1.000927579456783</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="K14">
-        <v>0.9997681067625329</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="L14">
-        <v>0.9997681067625329</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="M14">
-        <v>1.000347843109658</v>
+        <v>1.00042829</v>
       </c>
       <c r="N14">
-        <v>1.000347843109658</v>
+        <v>1.00042829</v>
       </c>
       <c r="O14">
-        <v>1.000401951260996</v>
+        <v>1.000494893333334</v>
       </c>
       <c r="P14">
-        <v>1.000154597660616</v>
+        <v>1.000190353333334</v>
       </c>
       <c r="Q14">
-        <v>1.000154597660616</v>
+        <v>1.000190353333334</v>
       </c>
       <c r="R14">
-        <v>1.000057974936095</v>
+        <v>1.000071385</v>
       </c>
       <c r="S14">
-        <v>1.000057974936095</v>
+        <v>1.000071385</v>
       </c>
       <c r="T14">
-        <v>1.000020614296469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.000025376666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9999367463468105</v>
+        <v>1.0010055</v>
       </c>
       <c r="D15">
-        <v>1.000253014939221</v>
+        <v>0.99778785</v>
       </c>
       <c r="E15">
-        <v>0.9999367463468105</v>
+        <v>1.0026814</v>
       </c>
       <c r="F15">
-        <v>0.9999367463468105</v>
+        <v>1.0010055</v>
       </c>
       <c r="G15">
-        <v>0.9998313272358839</v>
+        <v>1.0010055</v>
       </c>
       <c r="H15">
-        <v>1.000139159407398</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="I15">
-        <v>0.9999367463468105</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J15">
-        <v>1.000253014939221</v>
+        <v>1.0010055</v>
       </c>
       <c r="K15">
-        <v>0.9999367463468105</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>0.9999367463468105</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>1.000094880643016</v>
+        <v>0.9984917</v>
       </c>
       <c r="N15">
-        <v>1.000094880643016</v>
+        <v>0.9984917</v>
       </c>
       <c r="O15">
-        <v>1.000109640231143</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P15">
-        <v>1.000042169210947</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q15">
-        <v>1.000042169210947</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R15">
-        <v>1.000015813494913</v>
+        <v>0.9997486</v>
       </c>
       <c r="S15">
-        <v>1.000015813494913</v>
+        <v>0.9997486</v>
       </c>
       <c r="T15">
-        <v>1.000005623437156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999999802982079</v>
+        <v>1.0018487</v>
       </c>
       <c r="D16">
-        <v>1.000000076864969</v>
+        <v>0.9959328</v>
       </c>
       <c r="E16">
-        <v>0.9999999802982079</v>
+        <v>1.0049299</v>
       </c>
       <c r="F16">
-        <v>0.9999999802982079</v>
+        <v>1.0018487</v>
       </c>
       <c r="G16">
-        <v>0.9999999499695018</v>
+        <v>1.0018487</v>
       </c>
       <c r="H16">
-        <v>1.000000044221804</v>
+        <v>0.99260508</v>
       </c>
       <c r="I16">
-        <v>0.9999999802982079</v>
+        <v>0.99260508</v>
       </c>
       <c r="J16">
-        <v>1.000000076864969</v>
+        <v>1.0018487</v>
       </c>
       <c r="K16">
-        <v>0.9999999802982079</v>
+        <v>1.0018487</v>
       </c>
       <c r="L16">
-        <v>0.9999999802982079</v>
+        <v>1.0018487</v>
       </c>
       <c r="M16">
-        <v>1.000000028581588</v>
+        <v>0.9972268900000001</v>
       </c>
       <c r="N16">
-        <v>1.000000028581588</v>
+        <v>0.9972268900000001</v>
       </c>
       <c r="O16">
-        <v>1.000000033794994</v>
+        <v>0.9967955266666667</v>
       </c>
       <c r="P16">
-        <v>1.000000012487128</v>
+        <v>0.9987674933333334</v>
       </c>
       <c r="Q16">
-        <v>1.000000012487128</v>
+        <v>0.9987674933333334</v>
       </c>
       <c r="R16">
-        <v>1.000000004439898</v>
+        <v>0.9995377950000001</v>
       </c>
       <c r="S16">
-        <v>1.000000004439898</v>
+        <v>0.9995377950000001</v>
       </c>
       <c r="T16">
-        <v>1.000000001991816</v>
+        <v>0.9998356466666666</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999995939277414</v>
+        <v>1.0007084</v>
       </c>
       <c r="D17">
-        <v>1.000001622991025</v>
+        <v>0.9984415900000001</v>
       </c>
       <c r="E17">
-        <v>0.9999995939277414</v>
+        <v>1.001889</v>
       </c>
       <c r="F17">
-        <v>0.9999995939277414</v>
+        <v>1.0007084</v>
       </c>
       <c r="G17">
-        <v>0.9999989191671755</v>
+        <v>1.0007084</v>
       </c>
       <c r="H17">
-        <v>1.000000894821559</v>
+        <v>0.99716654</v>
       </c>
       <c r="I17">
-        <v>0.9999995939277414</v>
+        <v>0.99716654</v>
       </c>
       <c r="J17">
-        <v>1.000001622991025</v>
+        <v>1.0007084</v>
       </c>
       <c r="K17">
-        <v>0.9999995939277414</v>
+        <v>1.0007084</v>
       </c>
       <c r="L17">
-        <v>0.9999995939277414</v>
+        <v>1.0007084</v>
       </c>
       <c r="M17">
-        <v>1.000000608459383</v>
+        <v>0.99893747</v>
       </c>
       <c r="N17">
-        <v>1.000000608459383</v>
+        <v>0.99893747</v>
       </c>
       <c r="O17">
-        <v>1.000000703913442</v>
+        <v>0.9987721766666667</v>
       </c>
       <c r="P17">
-        <v>1.000000270282169</v>
+        <v>0.9995277799999999</v>
       </c>
       <c r="Q17">
-        <v>1.000000270282169</v>
+        <v>0.9995277799999999</v>
       </c>
       <c r="R17">
-        <v>1.000000101193562</v>
+        <v>0.9998229349999999</v>
       </c>
       <c r="S17">
-        <v>1.000000101193562</v>
+        <v>0.9998229349999999</v>
       </c>
       <c r="T17">
-        <v>1.000000036460498</v>
+        <v>0.9999370549999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999985711390705</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="D18">
-        <v>1.000005716105109</v>
+        <v>1.000202032191781</v>
       </c>
       <c r="E18">
-        <v>0.9999985711390705</v>
+        <v>0.9997551167123293</v>
       </c>
       <c r="F18">
-        <v>0.9999985711390705</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="G18">
-        <v>0.999996190414643</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="H18">
-        <v>1.000003143564702</v>
+        <v>1.000367311506849</v>
       </c>
       <c r="I18">
-        <v>0.9999985711390705</v>
+        <v>1.000367311506849</v>
       </c>
       <c r="J18">
-        <v>1.000005716105109</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="K18">
-        <v>0.9999985711390705</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="L18">
-        <v>0.9999985711390705</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="M18">
-        <v>1.00000214362209</v>
+        <v>1.000137739178082</v>
       </c>
       <c r="N18">
-        <v>1.00000214362209</v>
+        <v>1.000137739178082</v>
       </c>
       <c r="O18">
-        <v>1.000002476936294</v>
+        <v>1.000159170182648</v>
       </c>
       <c r="P18">
-        <v>1.000000952794416</v>
+        <v>1.000061215068493</v>
       </c>
       <c r="Q18">
-        <v>1.000000952794416</v>
+        <v>1.000061215068493</v>
       </c>
       <c r="R18">
-        <v>1.00000035738058</v>
+        <v>1.000022953013699</v>
       </c>
       <c r="S18">
-        <v>1.00000035738058</v>
+        <v>1.000022953013699</v>
       </c>
       <c r="T18">
-        <v>1.000000127250277</v>
+        <v>1.000008160159817</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9999966540202004</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="D19">
-        <v>1.000013388024186</v>
+        <v>0.9991235978947368</v>
       </c>
       <c r="E19">
-        <v>0.9999966540202004</v>
+        <v>1.001062303157895</v>
       </c>
       <c r="F19">
-        <v>0.9999966540202004</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="G19">
-        <v>0.9999910766302579</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="H19">
-        <v>1.000007362897272</v>
+        <v>0.9984065526315791</v>
       </c>
       <c r="I19">
-        <v>0.9999966540202004</v>
+        <v>0.9984065526315791</v>
       </c>
       <c r="J19">
-        <v>1.000013388024186</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="K19">
-        <v>0.9999966540202004</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="L19">
-        <v>0.9999966540202004</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="M19">
-        <v>1.000005021022193</v>
+        <v>0.9994024578947369</v>
       </c>
       <c r="N19">
-        <v>1.000005021022193</v>
+        <v>0.9994024578947369</v>
       </c>
       <c r="O19">
-        <v>1.000005801647219</v>
+        <v>0.9993095045614035</v>
       </c>
       <c r="P19">
-        <v>1.000002232021529</v>
+        <v>0.9997344263157896</v>
       </c>
       <c r="Q19">
-        <v>1.000002232021529</v>
+        <v>0.9997344263157896</v>
       </c>
       <c r="R19">
-        <v>1.000000837521197</v>
+        <v>0.9999004105263158</v>
       </c>
       <c r="S19">
-        <v>1.000000837521197</v>
+        <v>0.9999004105263158</v>
       </c>
       <c r="T19">
-        <v>1.00000029826872</v>
+        <v>0.9999645905263158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="D20">
+        <v>0.9985133868421052</v>
+      </c>
+      <c r="E20">
+        <v>1.001801949473684</v>
+      </c>
+      <c r="F20">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="G20">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="H20">
+        <v>0.9972970689473682</v>
+      </c>
+      <c r="I20">
+        <v>0.9972970689473682</v>
+      </c>
+      <c r="J20">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="K20">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="L20">
+        <v>1.000675734210526</v>
+      </c>
+      <c r="M20">
+        <v>0.9989864015789474</v>
+      </c>
+      <c r="N20">
+        <v>0.9989864015789474</v>
+      </c>
+      <c r="O20">
+        <v>0.9988287299999999</v>
+      </c>
+      <c r="P20">
+        <v>0.9995495124561403</v>
+      </c>
+      <c r="Q20">
+        <v>0.9995495124561403</v>
+      </c>
+      <c r="R20">
+        <v>0.9998310678947369</v>
+      </c>
+      <c r="S20">
+        <v>0.9998310678947369</v>
+      </c>
+      <c r="T20">
+        <v>0.9999399346491228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="D21">
+        <v>1.000510167563672</v>
+      </c>
+      <c r="E21">
+        <v>0.99938161847076</v>
+      </c>
+      <c r="F21">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="G21">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="H21">
+        <v>1.000927579456783</v>
+      </c>
+      <c r="I21">
+        <v>1.000927579456783</v>
+      </c>
+      <c r="J21">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="K21">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="L21">
+        <v>0.9997681067625329</v>
+      </c>
+      <c r="M21">
+        <v>1.000347843109658</v>
+      </c>
+      <c r="N21">
+        <v>1.000347843109658</v>
+      </c>
+      <c r="O21">
+        <v>1.000401951260996</v>
+      </c>
+      <c r="P21">
+        <v>1.000154597660616</v>
+      </c>
+      <c r="Q21">
+        <v>1.000154597660616</v>
+      </c>
+      <c r="R21">
+        <v>1.000057974936095</v>
+      </c>
+      <c r="S21">
+        <v>1.000057974936095</v>
+      </c>
+      <c r="T21">
+        <v>1.000020614296469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="D22">
+        <v>1.000139159407399</v>
+      </c>
+      <c r="E22">
+        <v>0.9998313272358839</v>
+      </c>
+      <c r="F22">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="G22">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="H22">
+        <v>1.000253014939221</v>
+      </c>
+      <c r="I22">
+        <v>1.000253014939221</v>
+      </c>
+      <c r="J22">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="K22">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="L22">
+        <v>0.9999367463468105</v>
+      </c>
+      <c r="M22">
+        <v>1.000094880643016</v>
+      </c>
+      <c r="N22">
+        <v>1.000094880643016</v>
+      </c>
+      <c r="O22">
+        <v>1.000109640231144</v>
+      </c>
+      <c r="P22">
+        <v>1.000042169210947</v>
+      </c>
+      <c r="Q22">
+        <v>1.000042169210947</v>
+      </c>
+      <c r="R22">
+        <v>1.000015813494913</v>
+      </c>
+      <c r="S22">
+        <v>1.000015813494913</v>
+      </c>
+      <c r="T22">
+        <v>1.000005623437156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="D23">
+        <v>1.00020388253831</v>
+      </c>
+      <c r="E23">
+        <v>0.9997528702554451</v>
+      </c>
+      <c r="F23">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="G23">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="H23">
+        <v>1.000370698243154</v>
+      </c>
+      <c r="I23">
+        <v>1.000370698243154</v>
+      </c>
+      <c r="J23">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="K23">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="L23">
+        <v>0.9999073222309677</v>
+      </c>
+      <c r="M23">
+        <v>1.000139010237061</v>
+      </c>
+      <c r="N23">
+        <v>1.000139010237061</v>
+      </c>
+      <c r="O23">
+        <v>1.000160634337477</v>
+      </c>
+      <c r="P23">
+        <v>1.000061780901696</v>
+      </c>
+      <c r="Q23">
+        <v>1.000061780901696</v>
+      </c>
+      <c r="R23">
+        <v>1.000023166234014</v>
+      </c>
+      <c r="S23">
+        <v>1.000023166234014</v>
+      </c>
+      <c r="T23">
+        <v>1.000008236288302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="D24">
+        <v>1.000053302596141</v>
+      </c>
+      <c r="E24">
+        <v>0.999935393613998</v>
+      </c>
+      <c r="F24">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="G24">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="H24">
+        <v>1.000096907769418</v>
+      </c>
+      <c r="I24">
+        <v>1.000096907769418</v>
+      </c>
+      <c r="J24">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="K24">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="L24">
+        <v>0.999975776093317</v>
+      </c>
+      <c r="M24">
+        <v>1.000036341931367</v>
+      </c>
+      <c r="N24">
+        <v>1.000036341931367</v>
+      </c>
+      <c r="O24">
+        <v>1.000041995486292</v>
+      </c>
+      <c r="P24">
+        <v>1.000016153318684</v>
+      </c>
+      <c r="Q24">
+        <v>1.000016153318684</v>
+      </c>
+      <c r="R24">
+        <v>1.000006059012342</v>
+      </c>
+      <c r="S24">
+        <v>1.000006059012342</v>
+      </c>
+      <c r="T24">
+        <v>1.000002155376585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000566909059617</v>
+      </c>
+      <c r="D25">
+        <v>0.9987528015024913</v>
+      </c>
+      <c r="E25">
+        <v>1.001511741381665</v>
+      </c>
+      <c r="F25">
+        <v>1.000566909059617</v>
+      </c>
+      <c r="G25">
+        <v>1.000566909059617</v>
+      </c>
+      <c r="H25">
+        <v>0.9977323649622599</v>
+      </c>
+      <c r="I25">
+        <v>0.9977323649622599</v>
+      </c>
+      <c r="J25">
+        <v>1.000566909059617</v>
+      </c>
+      <c r="K25">
+        <v>1.000566909059617</v>
+      </c>
+      <c r="L25">
+        <v>1.000566909059617</v>
+      </c>
+      <c r="M25">
+        <v>0.9991496370109387</v>
+      </c>
+      <c r="N25">
+        <v>0.9991496370109387</v>
+      </c>
+      <c r="O25">
+        <v>0.999017358508123</v>
+      </c>
+      <c r="P25">
+        <v>0.999622061027165</v>
+      </c>
+      <c r="Q25">
+        <v>0.999622061027165</v>
+      </c>
+      <c r="R25">
+        <v>0.9998582730352781</v>
+      </c>
+      <c r="S25">
+        <v>0.9998582730352781</v>
+      </c>
+      <c r="T25">
+        <v>0.9999496058375449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000150352930528</v>
+      </c>
+      <c r="D26">
+        <v>0.9996692310591436</v>
+      </c>
+      <c r="E26">
+        <v>1.000400931423548</v>
+      </c>
+      <c r="F26">
+        <v>1.000150352930528</v>
+      </c>
+      <c r="G26">
+        <v>1.000150352930528</v>
+      </c>
+      <c r="H26">
+        <v>0.9993985986976708</v>
+      </c>
+      <c r="I26">
+        <v>0.9993985986976708</v>
+      </c>
+      <c r="J26">
+        <v>1.000150352930528</v>
+      </c>
+      <c r="K26">
+        <v>1.000150352930528</v>
+      </c>
+      <c r="L26">
+        <v>1.000150352930528</v>
+      </c>
+      <c r="M26">
+        <v>0.9997744758140993</v>
+      </c>
+      <c r="N26">
+        <v>0.9997744758140993</v>
+      </c>
+      <c r="O26">
+        <v>0.9997393942291141</v>
+      </c>
+      <c r="P26">
+        <v>0.9998997681862422</v>
+      </c>
+      <c r="Q26">
+        <v>0.9998997681862422</v>
+      </c>
+      <c r="R26">
+        <v>0.9999624143723136</v>
+      </c>
+      <c r="S26">
+        <v>0.9999624143723136</v>
+      </c>
+      <c r="T26">
+        <v>0.9999866366619909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="D27">
+        <v>1.000037448706302</v>
+      </c>
+      <c r="E27">
+        <v>0.9999546326065073</v>
+      </c>
+      <c r="F27">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="G27">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="H27">
+        <v>1.00006806604681</v>
+      </c>
+      <c r="I27">
+        <v>1.00006806604681</v>
+      </c>
+      <c r="J27">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="K27">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="L27">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="M27">
+        <v>1.000025522954046</v>
+      </c>
+      <c r="N27">
+        <v>1.000025522954046</v>
+      </c>
+      <c r="O27">
+        <v>1.000029498204798</v>
+      </c>
+      <c r="P27">
+        <v>1.000011341923124</v>
+      </c>
+      <c r="Q27">
+        <v>1.000011341923124</v>
+      </c>
+      <c r="R27">
+        <v>1.000004251407664</v>
+      </c>
+      <c r="S27">
+        <v>1.000004251407664</v>
+      </c>
+      <c r="T27">
+        <v>1.000001514490578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="D28">
+        <v>0.9997572053302179</v>
+      </c>
+      <c r="E28">
+        <v>1.000294281822538</v>
+      </c>
+      <c r="F28">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="G28">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="H28">
+        <v>0.9995585754768366</v>
+      </c>
+      <c r="I28">
+        <v>0.9995585754768366</v>
+      </c>
+      <c r="J28">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="K28">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="L28">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="M28">
+        <v>0.9998344663242398</v>
+      </c>
+      <c r="N28">
+        <v>0.9998344663242398</v>
+      </c>
+      <c r="O28">
+        <v>0.9998087126595658</v>
+      </c>
+      <c r="P28">
+        <v>0.9999264299400409</v>
+      </c>
+      <c r="Q28">
+        <v>0.9999264299400409</v>
+      </c>
+      <c r="R28">
+        <v>0.9999724117479414</v>
+      </c>
+      <c r="S28">
+        <v>0.9999724117479414</v>
+      </c>
+      <c r="T28">
+        <v>0.9999901890240869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000157341691453</v>
+      </c>
+      <c r="D29">
+        <v>0.9996538208582806</v>
+      </c>
+      <c r="E29">
+        <v>1.000419586712324</v>
+      </c>
+      <c r="F29">
+        <v>1.000157341691453</v>
+      </c>
+      <c r="G29">
+        <v>1.000157341691453</v>
+      </c>
+      <c r="H29">
+        <v>0.9993706203664213</v>
+      </c>
+      <c r="I29">
+        <v>0.9993706203664213</v>
+      </c>
+      <c r="J29">
+        <v>1.000157341691453</v>
+      </c>
+      <c r="K29">
+        <v>1.000157341691453</v>
+      </c>
+      <c r="L29">
+        <v>1.000157341691453</v>
+      </c>
+      <c r="M29">
+        <v>0.9997639810289369</v>
+      </c>
+      <c r="N29">
+        <v>0.9997639810289369</v>
+      </c>
+      <c r="O29">
+        <v>0.9997272609720514</v>
+      </c>
+      <c r="P29">
+        <v>0.9998951012497755</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998951012497755</v>
+      </c>
+      <c r="R29">
+        <v>0.9999606613601948</v>
+      </c>
+      <c r="S29">
+        <v>0.9999606613601948</v>
+      </c>
+      <c r="T29">
+        <v>0.9999860088352306</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/AlphaFiberF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/AlphaFiberF-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000253588620126</v>
+        <v>0.9999550003462915</v>
       </c>
       <c r="D4">
-        <v>0.9994421055661601</v>
+        <v>1.000098998125962</v>
       </c>
       <c r="E4">
-        <v>1.000676239334453</v>
+        <v>0.9998800022410256</v>
       </c>
       <c r="F4">
-        <v>1.000253588620126</v>
+        <v>0.9999550003462915</v>
       </c>
       <c r="G4">
-        <v>1.000253588620126</v>
+        <v>0.9999550003462915</v>
       </c>
       <c r="H4">
-        <v>0.9989856428938787</v>
+        <v>1.00017999838655</v>
       </c>
       <c r="I4">
-        <v>0.9989856428938787</v>
+        <v>1.00017999838655</v>
       </c>
       <c r="J4">
-        <v>1.000253588620126</v>
+        <v>0.9999550003462915</v>
       </c>
       <c r="K4">
-        <v>1.000253588620126</v>
+        <v>0.9999550003462915</v>
       </c>
       <c r="L4">
-        <v>1.000253588620126</v>
+        <v>0.9999550003462915</v>
       </c>
       <c r="M4">
-        <v>0.9996196157570025</v>
+        <v>1.000067499366421</v>
       </c>
       <c r="N4">
-        <v>0.9996196157570025</v>
+        <v>1.000067499366421</v>
       </c>
       <c r="O4">
-        <v>0.9995604456933883</v>
+        <v>1.000077998952934</v>
       </c>
       <c r="P4">
-        <v>0.9998309400447104</v>
+        <v>1.000029999693044</v>
       </c>
       <c r="Q4">
-        <v>0.9998309400447104</v>
+        <v>1.000029999693044</v>
       </c>
       <c r="R4">
-        <v>0.9999366021885644</v>
+        <v>1.000011249856356</v>
       </c>
       <c r="S4">
-        <v>0.9999366021885644</v>
+        <v>1.000011249856356</v>
       </c>
       <c r="T4">
-        <v>0.9999774589424785</v>
+        <v>1.000003999965402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.999961371822766</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="D5">
-        <v>1.000084979762251</v>
+        <v>0.9983617020121687</v>
       </c>
       <c r="E5">
-        <v>0.9998969928962534</v>
+        <v>1.001985812962056</v>
       </c>
       <c r="F5">
-        <v>0.999961371822766</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="G5">
-        <v>0.999961371822766</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="H5">
-        <v>1.000154512384722</v>
+        <v>0.9970212724642875</v>
       </c>
       <c r="I5">
-        <v>1.000154512384722</v>
+        <v>0.9970212724642875</v>
       </c>
       <c r="J5">
-        <v>0.999961371822766</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="K5">
-        <v>0.999961371822766</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="L5">
-        <v>0.999961371822766</v>
+        <v>1.000744684091735</v>
       </c>
       <c r="M5">
-        <v>1.000057942103744</v>
+        <v>0.9988829782780114</v>
       </c>
       <c r="N5">
-        <v>1.000057942103744</v>
+        <v>0.9988829782780114</v>
       </c>
       <c r="O5">
-        <v>1.00006695465658</v>
+        <v>0.9987092195227305</v>
       </c>
       <c r="P5">
-        <v>1.000025752010085</v>
+        <v>0.9995035468825861</v>
       </c>
       <c r="Q5">
-        <v>1.000025752010085</v>
+        <v>0.9995035468825861</v>
       </c>
       <c r="R5">
-        <v>1.000009656963255</v>
+        <v>0.9998138311848734</v>
       </c>
       <c r="S5">
-        <v>1.000009656963255</v>
+        <v>0.9998138311848734</v>
       </c>
       <c r="T5">
-        <v>1.000003433418587</v>
+        <v>0.9999338066189529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9998371828182898</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="D6">
-        <v>1.000358175293824</v>
+        <v>0.9994421055661601</v>
       </c>
       <c r="E6">
-        <v>0.9995658245880339</v>
+        <v>1.000676239334453</v>
       </c>
       <c r="F6">
-        <v>0.9998371828182898</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="G6">
-        <v>0.9998371828182898</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="H6">
-        <v>1.000651278723092</v>
+        <v>0.9989856428938787</v>
       </c>
       <c r="I6">
-        <v>1.000651278723092</v>
+        <v>0.9989856428938787</v>
       </c>
       <c r="J6">
-        <v>0.9998371828182898</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="K6">
-        <v>0.9998371828182898</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="L6">
-        <v>0.9998371828182898</v>
+        <v>1.000253588620126</v>
       </c>
       <c r="M6">
-        <v>1.000244230770691</v>
+        <v>0.9996196157570025</v>
       </c>
       <c r="N6">
-        <v>1.000244230770691</v>
+        <v>0.9996196157570025</v>
       </c>
       <c r="O6">
-        <v>1.000282212278402</v>
+        <v>0.9995604456933883</v>
       </c>
       <c r="P6">
-        <v>1.000108548119891</v>
+        <v>0.9998309400447104</v>
       </c>
       <c r="Q6">
-        <v>1.000108548119891</v>
+        <v>0.9998309400447104</v>
       </c>
       <c r="R6">
-        <v>1.00004070679449</v>
+        <v>0.9999366021885644</v>
       </c>
       <c r="S6">
-        <v>1.00004070679449</v>
+        <v>0.9999366021885644</v>
       </c>
       <c r="T6">
-        <v>1.000014471176637</v>
+        <v>0.9999774589424785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999979580850812</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="D7">
-        <v>1.000004492020708</v>
+        <v>1.000084979762251</v>
       </c>
       <c r="E7">
-        <v>0.9999945589480972</v>
+        <v>0.9998969928962534</v>
       </c>
       <c r="F7">
-        <v>0.9999979580850812</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="G7">
-        <v>0.9999979580850812</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="H7">
-        <v>1.000008162352322</v>
+        <v>1.000154512384722</v>
       </c>
       <c r="I7">
-        <v>1.000008162352322</v>
+        <v>1.000154512384722</v>
       </c>
       <c r="J7">
-        <v>0.9999979580850812</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="K7">
-        <v>0.9999979580850812</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="L7">
-        <v>0.9999979580850812</v>
+        <v>0.999961371822766</v>
       </c>
       <c r="M7">
-        <v>1.000003060218702</v>
+        <v>1.000057942103744</v>
       </c>
       <c r="N7">
-        <v>1.000003060218702</v>
+        <v>1.000057942103744</v>
       </c>
       <c r="O7">
-        <v>1.000003537486037</v>
+        <v>1.00006695465658</v>
       </c>
       <c r="P7">
-        <v>1.000001359507495</v>
+        <v>1.000025752010085</v>
       </c>
       <c r="Q7">
-        <v>1.000001359507495</v>
+        <v>1.000025752010085</v>
       </c>
       <c r="R7">
-        <v>1.000000509151891</v>
+        <v>1.000009656963255</v>
       </c>
       <c r="S7">
-        <v>1.000000509151891</v>
+        <v>1.000009656963255</v>
       </c>
       <c r="T7">
-        <v>1.000000181262729</v>
+        <v>1.000003433418587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999995939277415</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="D8">
-        <v>1.000000894821559</v>
+        <v>1.000358175293824</v>
       </c>
       <c r="E8">
-        <v>0.9999989191671756</v>
+        <v>0.9995658245880339</v>
       </c>
       <c r="F8">
-        <v>0.9999995939277415</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="G8">
-        <v>0.9999995939277415</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="H8">
-        <v>1.000001622991025</v>
+        <v>1.000651278723092</v>
       </c>
       <c r="I8">
-        <v>1.000001622991025</v>
+        <v>1.000651278723092</v>
       </c>
       <c r="J8">
-        <v>0.9999995939277415</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="K8">
-        <v>0.9999995939277415</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="L8">
-        <v>0.9999995939277415</v>
+        <v>0.9998371828182898</v>
       </c>
       <c r="M8">
-        <v>1.000000608459383</v>
+        <v>1.000244230770691</v>
       </c>
       <c r="N8">
-        <v>1.000000608459383</v>
+        <v>1.000244230770691</v>
       </c>
       <c r="O8">
-        <v>1.000000703913442</v>
+        <v>1.000282212278402</v>
       </c>
       <c r="P8">
-        <v>1.000000270282169</v>
+        <v>1.000108548119891</v>
       </c>
       <c r="Q8">
-        <v>1.000000270282169</v>
+        <v>1.000108548119891</v>
       </c>
       <c r="R8">
-        <v>1.000000101193562</v>
+        <v>1.00004070679449</v>
       </c>
       <c r="S8">
-        <v>1.000000101193562</v>
+        <v>1.00004070679449</v>
       </c>
       <c r="T8">
-        <v>1.000000036460498</v>
+        <v>1.000014471176637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999910431493483</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="D9">
-        <v>1.000019704778302</v>
+        <v>1.000004492020708</v>
       </c>
       <c r="E9">
-        <v>0.9999761180834331</v>
+        <v>0.9999945589480972</v>
       </c>
       <c r="F9">
-        <v>0.9999910431493483</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="G9">
-        <v>0.9999910431493483</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="H9">
-        <v>1.000035823509013</v>
+        <v>1.000008162352322</v>
       </c>
       <c r="I9">
-        <v>1.000035823509013</v>
+        <v>1.000008162352322</v>
       </c>
       <c r="J9">
-        <v>0.9999910431493483</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="K9">
-        <v>0.9999910431493483</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="L9">
-        <v>0.9999910431493483</v>
+        <v>0.9999979580850812</v>
       </c>
       <c r="M9">
-        <v>1.00001343332918</v>
+        <v>1.000003060218702</v>
       </c>
       <c r="N9">
-        <v>1.00001343332918</v>
+        <v>1.000003060218702</v>
       </c>
       <c r="O9">
-        <v>1.000015523812221</v>
+        <v>1.000003537486037</v>
       </c>
       <c r="P9">
-        <v>1.000005969935903</v>
+        <v>1.000001359507495</v>
       </c>
       <c r="Q9">
-        <v>1.000005969935903</v>
+        <v>1.000001359507495</v>
       </c>
       <c r="R9">
-        <v>1.000002238239264</v>
+        <v>1.000000509151891</v>
       </c>
       <c r="S9">
-        <v>1.000002238239264</v>
+        <v>1.000000509151891</v>
       </c>
       <c r="T9">
-        <v>1.000000795969799</v>
+        <v>1.000000181262729</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9998347407490412</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="D10">
-        <v>1.000363548215615</v>
+        <v>1.000000894821559</v>
       </c>
       <c r="E10">
-        <v>0.9995593108408519</v>
+        <v>0.9999989191671756</v>
       </c>
       <c r="F10">
-        <v>0.9998347407490412</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="G10">
-        <v>0.9998347407490412</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="H10">
-        <v>1.000661048732806</v>
+        <v>1.000001622991025</v>
       </c>
       <c r="I10">
-        <v>1.000661048732806</v>
+        <v>1.000001622991025</v>
       </c>
       <c r="J10">
-        <v>0.9998347407490412</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="K10">
-        <v>0.9998347407490412</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="L10">
-        <v>0.9998347407490412</v>
+        <v>0.9999995939277415</v>
       </c>
       <c r="M10">
-        <v>1.000247894740924</v>
+        <v>1.000000608459383</v>
       </c>
       <c r="N10">
-        <v>1.000247894740924</v>
+        <v>1.000000608459383</v>
       </c>
       <c r="O10">
-        <v>1.000286445899154</v>
+        <v>1.000000703913442</v>
       </c>
       <c r="P10">
-        <v>1.00011017674363</v>
+        <v>1.000000270282169</v>
       </c>
       <c r="Q10">
-        <v>1.00011017674363</v>
+        <v>1.000000270282169</v>
       </c>
       <c r="R10">
-        <v>1.000041317744983</v>
+        <v>1.000000101193562</v>
       </c>
       <c r="S10">
-        <v>1.000041317744983</v>
+        <v>1.000000101193562</v>
       </c>
       <c r="T10">
-        <v>1.0000146883394</v>
+        <v>1.000000036460498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000189303149439</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="D11">
-        <v>0.9995835325477828</v>
+        <v>1.000019704778302</v>
       </c>
       <c r="E11">
-        <v>1.00050481415281</v>
+        <v>0.9999761180834331</v>
       </c>
       <c r="F11">
-        <v>1.000189303149439</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="G11">
-        <v>1.000189303149439</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="H11">
-        <v>0.9992427821117049</v>
+        <v>1.000035823509013</v>
       </c>
       <c r="I11">
-        <v>0.9992427821117049</v>
+        <v>1.000035823509013</v>
       </c>
       <c r="J11">
-        <v>1.000189303149439</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="K11">
-        <v>1.000189303149439</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="L11">
-        <v>1.000189303149439</v>
+        <v>0.9999910431493483</v>
       </c>
       <c r="M11">
-        <v>0.9997160426305721</v>
+        <v>1.00001343332918</v>
       </c>
       <c r="N11">
-        <v>0.9997160426305721</v>
+        <v>1.00001343332918</v>
       </c>
       <c r="O11">
-        <v>0.9996718726029757</v>
+        <v>1.000015523812221</v>
       </c>
       <c r="P11">
-        <v>0.9998737961368612</v>
+        <v>1.000005969935903</v>
       </c>
       <c r="Q11">
-        <v>0.9998737961368612</v>
+        <v>1.000005969935903</v>
       </c>
       <c r="R11">
-        <v>0.9999526728900057</v>
+        <v>1.000002238239264</v>
       </c>
       <c r="S11">
-        <v>0.9999526728900057</v>
+        <v>1.000002238239264</v>
       </c>
       <c r="T11">
-        <v>0.999983173043436</v>
+        <v>1.000000795969799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9999578117157879</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="D12">
-        <v>1.000092812305265</v>
+        <v>1.000363548215615</v>
       </c>
       <c r="E12">
-        <v>0.9998874965684197</v>
+        <v>0.9995593108408519</v>
       </c>
       <c r="F12">
-        <v>0.9999578117157879</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="G12">
-        <v>0.9999578117157879</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="H12">
-        <v>1.000168756673681</v>
+        <v>1.000661048732806</v>
       </c>
       <c r="I12">
-        <v>1.000168756673681</v>
+        <v>1.000661048732806</v>
       </c>
       <c r="J12">
-        <v>0.9999578117157879</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="K12">
-        <v>0.9999578117157879</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="L12">
-        <v>0.9999578117157879</v>
+        <v>0.9998347407490412</v>
       </c>
       <c r="M12">
-        <v>1.000063284194734</v>
+        <v>1.000247894740924</v>
       </c>
       <c r="N12">
-        <v>1.000063284194734</v>
+        <v>1.000247894740924</v>
       </c>
       <c r="O12">
-        <v>1.000073126898245</v>
+        <v>1.000286445899154</v>
       </c>
       <c r="P12">
-        <v>1.000028126701752</v>
+        <v>1.00011017674363</v>
       </c>
       <c r="Q12">
-        <v>1.000028126701752</v>
+        <v>1.00011017674363</v>
       </c>
       <c r="R12">
-        <v>1.000010547955261</v>
+        <v>1.000041317744983</v>
       </c>
       <c r="S12">
-        <v>1.000010547955261</v>
+        <v>1.000041317744983</v>
       </c>
       <c r="T12">
-        <v>1.000003750115788</v>
+        <v>1.0000146883394</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000032503494261</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="D13">
-        <v>0.9999284978645003</v>
+        <v>0.9995835325477828</v>
       </c>
       <c r="E13">
-        <v>1.000086672060078</v>
+        <v>1.00050481415281</v>
       </c>
       <c r="F13">
-        <v>1.000032503494261</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="G13">
-        <v>1.000032503494261</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="H13">
-        <v>0.9998699909465619</v>
+        <v>0.9992427821117049</v>
       </c>
       <c r="I13">
-        <v>0.9998699909465619</v>
+        <v>0.9992427821117049</v>
       </c>
       <c r="J13">
-        <v>1.000032503494261</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="K13">
-        <v>1.000032503494261</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="L13">
-        <v>1.000032503494261</v>
+        <v>1.000189303149439</v>
       </c>
       <c r="M13">
-        <v>0.9999512472204113</v>
+        <v>0.9997160426305721</v>
       </c>
       <c r="N13">
-        <v>0.9999512472204113</v>
+        <v>0.9997160426305721</v>
       </c>
       <c r="O13">
-        <v>0.9999436641017744</v>
+        <v>0.9996718726029757</v>
       </c>
       <c r="P13">
-        <v>0.9999783326450279</v>
+        <v>0.9998737961368612</v>
       </c>
       <c r="Q13">
-        <v>0.9999783326450279</v>
+        <v>0.9998737961368612</v>
       </c>
       <c r="R13">
-        <v>0.999991875357336</v>
+        <v>0.9999526728900057</v>
       </c>
       <c r="S13">
-        <v>0.999991875357336</v>
+        <v>0.9999526728900057</v>
       </c>
       <c r="T13">
-        <v>0.9999971118923203</v>
+        <v>0.999983173043436</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9997144800000002</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="D14">
-        <v>1.0006281</v>
+        <v>1.000092812305265</v>
       </c>
       <c r="E14">
-        <v>0.9992386200000002</v>
+        <v>0.9998874965684197</v>
       </c>
       <c r="F14">
-        <v>0.9997144800000002</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="G14">
-        <v>0.9997144800000002</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="H14">
-        <v>1.0011421</v>
+        <v>1.000168756673681</v>
       </c>
       <c r="I14">
-        <v>1.0011421</v>
+        <v>1.000168756673681</v>
       </c>
       <c r="J14">
-        <v>0.9997144800000002</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="K14">
-        <v>0.9997144800000002</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="L14">
-        <v>0.9997144800000002</v>
+        <v>0.9999578117157879</v>
       </c>
       <c r="M14">
-        <v>1.00042829</v>
+        <v>1.000063284194734</v>
       </c>
       <c r="N14">
-        <v>1.00042829</v>
+        <v>1.000063284194734</v>
       </c>
       <c r="O14">
-        <v>1.000494893333334</v>
+        <v>1.000073126898245</v>
       </c>
       <c r="P14">
-        <v>1.000190353333334</v>
+        <v>1.000028126701752</v>
       </c>
       <c r="Q14">
-        <v>1.000190353333334</v>
+        <v>1.000028126701752</v>
       </c>
       <c r="R14">
-        <v>1.000071385</v>
+        <v>1.000010547955261</v>
       </c>
       <c r="S14">
-        <v>1.000071385</v>
+        <v>1.000010547955261</v>
       </c>
       <c r="T14">
-        <v>1.000025376666667</v>
+        <v>1.000003750115788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0010055</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="D15">
-        <v>0.99778785</v>
+        <v>0.9999284978645003</v>
       </c>
       <c r="E15">
-        <v>1.0026814</v>
+        <v>1.000086672060078</v>
       </c>
       <c r="F15">
-        <v>1.0010055</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="G15">
-        <v>1.0010055</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="H15">
-        <v>0.9959779000000001</v>
+        <v>0.9998699909465619</v>
       </c>
       <c r="I15">
-        <v>0.9959779000000001</v>
+        <v>0.9998699909465619</v>
       </c>
       <c r="J15">
-        <v>1.0010055</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>1.000032503494261</v>
       </c>
       <c r="M15">
-        <v>0.9984917</v>
+        <v>0.9999512472204113</v>
       </c>
       <c r="N15">
-        <v>0.9984917</v>
+        <v>0.9999512472204113</v>
       </c>
       <c r="O15">
-        <v>0.9982570833333333</v>
+        <v>0.9999436641017744</v>
       </c>
       <c r="P15">
-        <v>0.9993296333333334</v>
+        <v>0.9999783326450279</v>
       </c>
       <c r="Q15">
-        <v>0.9993296333333334</v>
+        <v>0.9999783326450279</v>
       </c>
       <c r="R15">
-        <v>0.9997486</v>
+        <v>0.999991875357336</v>
       </c>
       <c r="S15">
-        <v>0.9997486</v>
+        <v>0.999991875357336</v>
       </c>
       <c r="T15">
-        <v>0.9999106083333333</v>
+        <v>0.9999971118923203</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0018487</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="D16">
-        <v>0.9959328</v>
+        <v>1.0006281</v>
       </c>
       <c r="E16">
-        <v>1.0049299</v>
+        <v>0.9992386200000002</v>
       </c>
       <c r="F16">
-        <v>1.0018487</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="G16">
-        <v>1.0018487</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="H16">
-        <v>0.99260508</v>
+        <v>1.0011421</v>
       </c>
       <c r="I16">
-        <v>0.99260508</v>
+        <v>1.0011421</v>
       </c>
       <c r="J16">
-        <v>1.0018487</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="K16">
-        <v>1.0018487</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="L16">
-        <v>1.0018487</v>
+        <v>0.9997144800000002</v>
       </c>
       <c r="M16">
-        <v>0.9972268900000001</v>
+        <v>1.00042829</v>
       </c>
       <c r="N16">
-        <v>0.9972268900000001</v>
+        <v>1.00042829</v>
       </c>
       <c r="O16">
-        <v>0.9967955266666667</v>
+        <v>1.000494893333334</v>
       </c>
       <c r="P16">
-        <v>0.9987674933333334</v>
+        <v>1.000190353333334</v>
       </c>
       <c r="Q16">
-        <v>0.9987674933333334</v>
+        <v>1.000190353333334</v>
       </c>
       <c r="R16">
-        <v>0.9995377950000001</v>
+        <v>1.000071385</v>
       </c>
       <c r="S16">
-        <v>0.9995377950000001</v>
+        <v>1.000071385</v>
       </c>
       <c r="T16">
-        <v>0.9998356466666666</v>
+        <v>1.000025376666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0007084</v>
+        <v>1.0010055</v>
       </c>
       <c r="D17">
-        <v>0.9984415900000001</v>
+        <v>0.99778785</v>
       </c>
       <c r="E17">
-        <v>1.001889</v>
+        <v>1.0026814</v>
       </c>
       <c r="F17">
-        <v>1.0007084</v>
+        <v>1.0010055</v>
       </c>
       <c r="G17">
-        <v>1.0007084</v>
+        <v>1.0010055</v>
       </c>
       <c r="H17">
-        <v>0.99716654</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="I17">
-        <v>0.99716654</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="J17">
-        <v>1.0007084</v>
+        <v>1.0010055</v>
       </c>
       <c r="K17">
-        <v>1.0007084</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>1.0007084</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>0.99893747</v>
+        <v>0.9984917</v>
       </c>
       <c r="N17">
-        <v>0.99893747</v>
+        <v>0.9984917</v>
       </c>
       <c r="O17">
-        <v>0.9987721766666667</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P17">
-        <v>0.9995277799999999</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q17">
-        <v>0.9995277799999999</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R17">
-        <v>0.9998229349999999</v>
+        <v>0.9997486</v>
       </c>
       <c r="S17">
-        <v>0.9998229349999999</v>
+        <v>0.9997486</v>
       </c>
       <c r="T17">
-        <v>0.9999370549999999</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999081668493154</v>
+        <v>1.0018487</v>
       </c>
       <c r="D18">
-        <v>1.000202032191781</v>
+        <v>0.9959328</v>
       </c>
       <c r="E18">
-        <v>0.9997551167123293</v>
+        <v>1.0049299</v>
       </c>
       <c r="F18">
-        <v>0.9999081668493154</v>
+        <v>1.0018487</v>
       </c>
       <c r="G18">
-        <v>0.9999081668493154</v>
+        <v>1.0018487</v>
       </c>
       <c r="H18">
-        <v>1.000367311506849</v>
+        <v>0.99260508</v>
       </c>
       <c r="I18">
-        <v>1.000367311506849</v>
+        <v>0.99260508</v>
       </c>
       <c r="J18">
-        <v>0.9999081668493154</v>
+        <v>1.0018487</v>
       </c>
       <c r="K18">
-        <v>0.9999081668493154</v>
+        <v>1.0018487</v>
       </c>
       <c r="L18">
-        <v>0.9999081668493154</v>
+        <v>1.0018487</v>
       </c>
       <c r="M18">
-        <v>1.000137739178082</v>
+        <v>0.9972268900000001</v>
       </c>
       <c r="N18">
-        <v>1.000137739178082</v>
+        <v>0.9972268900000001</v>
       </c>
       <c r="O18">
-        <v>1.000159170182648</v>
+        <v>0.9967955266666667</v>
       </c>
       <c r="P18">
-        <v>1.000061215068493</v>
+        <v>0.9987674933333334</v>
       </c>
       <c r="Q18">
-        <v>1.000061215068493</v>
+        <v>0.9987674933333334</v>
       </c>
       <c r="R18">
-        <v>1.000022953013699</v>
+        <v>0.9995377950000001</v>
       </c>
       <c r="S18">
-        <v>1.000022953013699</v>
+        <v>0.9995377950000001</v>
       </c>
       <c r="T18">
-        <v>1.000008160159817</v>
+        <v>0.9998356466666666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000398363157895</v>
+        <v>1.0007084</v>
       </c>
       <c r="D19">
-        <v>0.9991235978947368</v>
+        <v>0.9984415900000001</v>
       </c>
       <c r="E19">
-        <v>1.001062303157895</v>
+        <v>1.001889</v>
       </c>
       <c r="F19">
-        <v>1.000398363157895</v>
+        <v>1.0007084</v>
       </c>
       <c r="G19">
-        <v>1.000398363157895</v>
+        <v>1.0007084</v>
       </c>
       <c r="H19">
-        <v>0.9984065526315791</v>
+        <v>0.99716654</v>
       </c>
       <c r="I19">
-        <v>0.9984065526315791</v>
+        <v>0.99716654</v>
       </c>
       <c r="J19">
-        <v>1.000398363157895</v>
+        <v>1.0007084</v>
       </c>
       <c r="K19">
-        <v>1.000398363157895</v>
+        <v>1.0007084</v>
       </c>
       <c r="L19">
-        <v>1.000398363157895</v>
+        <v>1.0007084</v>
       </c>
       <c r="M19">
-        <v>0.9994024578947369</v>
+        <v>0.99893747</v>
       </c>
       <c r="N19">
-        <v>0.9994024578947369</v>
+        <v>0.99893747</v>
       </c>
       <c r="O19">
-        <v>0.9993095045614035</v>
+        <v>0.9987721766666667</v>
       </c>
       <c r="P19">
-        <v>0.9997344263157896</v>
+        <v>0.9995277799999999</v>
       </c>
       <c r="Q19">
-        <v>0.9997344263157896</v>
+        <v>0.9995277799999999</v>
       </c>
       <c r="R19">
-        <v>0.9999004105263158</v>
+        <v>0.9998229349999999</v>
       </c>
       <c r="S19">
-        <v>0.9999004105263158</v>
+        <v>0.9998229349999999</v>
       </c>
       <c r="T19">
-        <v>0.9999645905263158</v>
+        <v>0.9999370549999999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000675734210526</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="D20">
-        <v>0.9985133868421052</v>
+        <v>1.000202032191781</v>
       </c>
       <c r="E20">
-        <v>1.001801949473684</v>
+        <v>0.9997551167123293</v>
       </c>
       <c r="F20">
-        <v>1.000675734210526</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="G20">
-        <v>1.000675734210526</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="H20">
-        <v>0.9972970689473682</v>
+        <v>1.000367311506849</v>
       </c>
       <c r="I20">
-        <v>0.9972970689473682</v>
+        <v>1.000367311506849</v>
       </c>
       <c r="J20">
-        <v>1.000675734210526</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="K20">
-        <v>1.000675734210526</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="L20">
-        <v>1.000675734210526</v>
+        <v>0.9999081668493154</v>
       </c>
       <c r="M20">
-        <v>0.9989864015789474</v>
+        <v>1.000137739178082</v>
       </c>
       <c r="N20">
-        <v>0.9989864015789474</v>
+        <v>1.000137739178082</v>
       </c>
       <c r="O20">
-        <v>0.9988287299999999</v>
+        <v>1.000159170182648</v>
       </c>
       <c r="P20">
-        <v>0.9995495124561403</v>
+        <v>1.000061215068493</v>
       </c>
       <c r="Q20">
-        <v>0.9995495124561403</v>
+        <v>1.000061215068493</v>
       </c>
       <c r="R20">
-        <v>0.9998310678947369</v>
+        <v>1.000022953013699</v>
       </c>
       <c r="S20">
-        <v>0.9998310678947369</v>
+        <v>1.000022953013699</v>
       </c>
       <c r="T20">
-        <v>0.9999399346491228</v>
+        <v>1.000008160159817</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9997681067625329</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="D21">
-        <v>1.000510167563672</v>
+        <v>0.9991235978947368</v>
       </c>
       <c r="E21">
-        <v>0.99938161847076</v>
+        <v>1.001062303157895</v>
       </c>
       <c r="F21">
-        <v>0.9997681067625329</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="G21">
-        <v>0.9997681067625329</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="H21">
-        <v>1.000927579456783</v>
+        <v>0.9984065526315791</v>
       </c>
       <c r="I21">
-        <v>1.000927579456783</v>
+        <v>0.9984065526315791</v>
       </c>
       <c r="J21">
-        <v>0.9997681067625329</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="K21">
-        <v>0.9997681067625329</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="L21">
-        <v>0.9997681067625329</v>
+        <v>1.000398363157895</v>
       </c>
       <c r="M21">
-        <v>1.000347843109658</v>
+        <v>0.9994024578947369</v>
       </c>
       <c r="N21">
-        <v>1.000347843109658</v>
+        <v>0.9994024578947369</v>
       </c>
       <c r="O21">
-        <v>1.000401951260996</v>
+        <v>0.9993095045614035</v>
       </c>
       <c r="P21">
-        <v>1.000154597660616</v>
+        <v>0.9997344263157896</v>
       </c>
       <c r="Q21">
-        <v>1.000154597660616</v>
+        <v>0.9997344263157896</v>
       </c>
       <c r="R21">
-        <v>1.000057974936095</v>
+        <v>0.9999004105263158</v>
       </c>
       <c r="S21">
-        <v>1.000057974936095</v>
+        <v>0.9999004105263158</v>
       </c>
       <c r="T21">
-        <v>1.000020614296469</v>
+        <v>0.9999645905263158</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999367463468105</v>
+        <v>1.000675734210526</v>
       </c>
       <c r="D22">
-        <v>1.000139159407399</v>
+        <v>0.9985133868421052</v>
       </c>
       <c r="E22">
-        <v>0.9998313272358839</v>
+        <v>1.001801949473684</v>
       </c>
       <c r="F22">
-        <v>0.9999367463468105</v>
+        <v>1.000675734210526</v>
       </c>
       <c r="G22">
-        <v>0.9999367463468105</v>
+        <v>1.000675734210526</v>
       </c>
       <c r="H22">
-        <v>1.000253014939221</v>
+        <v>0.9972970689473682</v>
       </c>
       <c r="I22">
-        <v>1.000253014939221</v>
+        <v>0.9972970689473682</v>
       </c>
       <c r="J22">
-        <v>0.9999367463468105</v>
+        <v>1.000675734210526</v>
       </c>
       <c r="K22">
-        <v>0.9999367463468105</v>
+        <v>1.000675734210526</v>
       </c>
       <c r="L22">
-        <v>0.9999367463468105</v>
+        <v>1.000675734210526</v>
       </c>
       <c r="M22">
-        <v>1.000094880643016</v>
+        <v>0.9989864015789474</v>
       </c>
       <c r="N22">
-        <v>1.000094880643016</v>
+        <v>0.9989864015789474</v>
       </c>
       <c r="O22">
-        <v>1.000109640231144</v>
+        <v>0.9988287299999999</v>
       </c>
       <c r="P22">
-        <v>1.000042169210947</v>
+        <v>0.9995495124561403</v>
       </c>
       <c r="Q22">
-        <v>1.000042169210947</v>
+        <v>0.9995495124561403</v>
       </c>
       <c r="R22">
-        <v>1.000015813494913</v>
+        <v>0.9998310678947369</v>
       </c>
       <c r="S22">
-        <v>1.000015813494913</v>
+        <v>0.9998310678947369</v>
       </c>
       <c r="T22">
-        <v>1.000005623437156</v>
+        <v>0.9999399346491228</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9999073222309677</v>
+        <v>0.9997681067625329</v>
       </c>
       <c r="D23">
-        <v>1.00020388253831</v>
+        <v>1.000510167563672</v>
       </c>
       <c r="E23">
-        <v>0.9997528702554451</v>
+        <v>0.99938161847076</v>
       </c>
       <c r="F23">
-        <v>0.9999073222309677</v>
+        <v>0.9997681067625329</v>
       </c>
       <c r="G23">
-        <v>0.9999073222309677</v>
+        <v>0.9997681067625329</v>
       </c>
       <c r="H23">
-        <v>1.000370698243154</v>
+        <v>1.000927579456783</v>
       </c>
       <c r="I23">
-        <v>1.000370698243154</v>
+        <v>1.000927579456783</v>
       </c>
       <c r="J23">
-        <v>0.9999073222309677</v>
+        <v>0.9997681067625329</v>
       </c>
       <c r="K23">
-        <v>0.9999073222309677</v>
+        <v>0.9997681067625329</v>
       </c>
       <c r="L23">
-        <v>0.9999073222309677</v>
+        <v>0.9997681067625329</v>
       </c>
       <c r="M23">
-        <v>1.000139010237061</v>
+        <v>1.000347843109658</v>
       </c>
       <c r="N23">
-        <v>1.000139010237061</v>
+        <v>1.000347843109658</v>
       </c>
       <c r="O23">
-        <v>1.000160634337477</v>
+        <v>1.000401951260996</v>
       </c>
       <c r="P23">
-        <v>1.000061780901696</v>
+        <v>1.000154597660616</v>
       </c>
       <c r="Q23">
-        <v>1.000061780901696</v>
+        <v>1.000154597660616</v>
       </c>
       <c r="R23">
-        <v>1.000023166234014</v>
+        <v>1.000057974936095</v>
       </c>
       <c r="S23">
-        <v>1.000023166234014</v>
+        <v>1.000057974936095</v>
       </c>
       <c r="T23">
-        <v>1.000008236288302</v>
+        <v>1.000020614296469</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.999975776093317</v>
+        <v>0.9999367463468105</v>
       </c>
       <c r="D24">
-        <v>1.000053302596141</v>
+        <v>1.000139159407399</v>
       </c>
       <c r="E24">
-        <v>0.999935393613998</v>
+        <v>0.9998313272358839</v>
       </c>
       <c r="F24">
-        <v>0.999975776093317</v>
+        <v>0.9999367463468105</v>
       </c>
       <c r="G24">
-        <v>0.999975776093317</v>
+        <v>0.9999367463468105</v>
       </c>
       <c r="H24">
-        <v>1.000096907769418</v>
+        <v>1.000253014939221</v>
       </c>
       <c r="I24">
-        <v>1.000096907769418</v>
+        <v>1.000253014939221</v>
       </c>
       <c r="J24">
-        <v>0.999975776093317</v>
+        <v>0.9999367463468105</v>
       </c>
       <c r="K24">
-        <v>0.999975776093317</v>
+        <v>0.9999367463468105</v>
       </c>
       <c r="L24">
-        <v>0.999975776093317</v>
+        <v>0.9999367463468105</v>
       </c>
       <c r="M24">
-        <v>1.000036341931367</v>
+        <v>1.000094880643016</v>
       </c>
       <c r="N24">
-        <v>1.000036341931367</v>
+        <v>1.000094880643016</v>
       </c>
       <c r="O24">
-        <v>1.000041995486292</v>
+        <v>1.000109640231144</v>
       </c>
       <c r="P24">
-        <v>1.000016153318684</v>
+        <v>1.000042169210947</v>
       </c>
       <c r="Q24">
-        <v>1.000016153318684</v>
+        <v>1.000042169210947</v>
       </c>
       <c r="R24">
-        <v>1.000006059012342</v>
+        <v>1.000015813494913</v>
       </c>
       <c r="S24">
-        <v>1.000006059012342</v>
+        <v>1.000015813494913</v>
       </c>
       <c r="T24">
-        <v>1.000002155376585</v>
+        <v>1.000005623437156</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.000566909059617</v>
+        <v>0.9999073222309677</v>
       </c>
       <c r="D25">
-        <v>0.9987528015024913</v>
+        <v>1.00020388253831</v>
       </c>
       <c r="E25">
-        <v>1.001511741381665</v>
+        <v>0.9997528702554451</v>
       </c>
       <c r="F25">
-        <v>1.000566909059617</v>
+        <v>0.9999073222309677</v>
       </c>
       <c r="G25">
-        <v>1.000566909059617</v>
+        <v>0.9999073222309677</v>
       </c>
       <c r="H25">
-        <v>0.9977323649622599</v>
+        <v>1.000370698243154</v>
       </c>
       <c r="I25">
-        <v>0.9977323649622599</v>
+        <v>1.000370698243154</v>
       </c>
       <c r="J25">
-        <v>1.000566909059617</v>
+        <v>0.9999073222309677</v>
       </c>
       <c r="K25">
-        <v>1.000566909059617</v>
+        <v>0.9999073222309677</v>
       </c>
       <c r="L25">
-        <v>1.000566909059617</v>
+        <v>0.9999073222309677</v>
       </c>
       <c r="M25">
-        <v>0.9991496370109387</v>
+        <v>1.000139010237061</v>
       </c>
       <c r="N25">
-        <v>0.9991496370109387</v>
+        <v>1.000139010237061</v>
       </c>
       <c r="O25">
-        <v>0.999017358508123</v>
+        <v>1.000160634337477</v>
       </c>
       <c r="P25">
-        <v>0.999622061027165</v>
+        <v>1.000061780901696</v>
       </c>
       <c r="Q25">
-        <v>0.999622061027165</v>
+        <v>1.000061780901696</v>
       </c>
       <c r="R25">
-        <v>0.9998582730352781</v>
+        <v>1.000023166234014</v>
       </c>
       <c r="S25">
-        <v>0.9998582730352781</v>
+        <v>1.000023166234014</v>
       </c>
       <c r="T25">
-        <v>0.9999496058375449</v>
+        <v>1.000008236288302</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000150352930528</v>
+        <v>0.999975776093317</v>
       </c>
       <c r="D26">
-        <v>0.9996692310591436</v>
+        <v>1.000053302596141</v>
       </c>
       <c r="E26">
-        <v>1.000400931423548</v>
+        <v>0.999935393613998</v>
       </c>
       <c r="F26">
-        <v>1.000150352930528</v>
+        <v>0.999975776093317</v>
       </c>
       <c r="G26">
-        <v>1.000150352930528</v>
+        <v>0.999975776093317</v>
       </c>
       <c r="H26">
-        <v>0.9993985986976708</v>
+        <v>1.000096907769418</v>
       </c>
       <c r="I26">
-        <v>0.9993985986976708</v>
+        <v>1.000096907769418</v>
       </c>
       <c r="J26">
-        <v>1.000150352930528</v>
+        <v>0.999975776093317</v>
       </c>
       <c r="K26">
-        <v>1.000150352930528</v>
+        <v>0.999975776093317</v>
       </c>
       <c r="L26">
-        <v>1.000150352930528</v>
+        <v>0.999975776093317</v>
       </c>
       <c r="M26">
-        <v>0.9997744758140993</v>
+        <v>1.000036341931367</v>
       </c>
       <c r="N26">
-        <v>0.9997744758140993</v>
+        <v>1.000036341931367</v>
       </c>
       <c r="O26">
-        <v>0.9997393942291141</v>
+        <v>1.000041995486292</v>
       </c>
       <c r="P26">
-        <v>0.9998997681862422</v>
+        <v>1.000016153318684</v>
       </c>
       <c r="Q26">
-        <v>0.9998997681862422</v>
+        <v>1.000016153318684</v>
       </c>
       <c r="R26">
-        <v>0.9999624143723136</v>
+        <v>1.000006059012342</v>
       </c>
       <c r="S26">
-        <v>0.9999624143723136</v>
+        <v>1.000006059012342</v>
       </c>
       <c r="T26">
-        <v>0.9999866366619909</v>
+        <v>1.000002155376585</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.999982979861282</v>
+        <v>1.000566909059617</v>
       </c>
       <c r="D27">
-        <v>1.000037448706302</v>
+        <v>0.9987528015024913</v>
       </c>
       <c r="E27">
-        <v>0.9999546326065073</v>
+        <v>1.001511741381665</v>
       </c>
       <c r="F27">
-        <v>0.999982979861282</v>
+        <v>1.000566909059617</v>
       </c>
       <c r="G27">
-        <v>0.999982979861282</v>
+        <v>1.000566909059617</v>
       </c>
       <c r="H27">
-        <v>1.00006806604681</v>
+        <v>0.9977323649622599</v>
       </c>
       <c r="I27">
-        <v>1.00006806604681</v>
+        <v>0.9977323649622599</v>
       </c>
       <c r="J27">
-        <v>0.999982979861282</v>
+        <v>1.000566909059617</v>
       </c>
       <c r="K27">
-        <v>0.999982979861282</v>
+        <v>1.000566909059617</v>
       </c>
       <c r="L27">
-        <v>0.999982979861282</v>
+        <v>1.000566909059617</v>
       </c>
       <c r="M27">
-        <v>1.000025522954046</v>
+        <v>0.9991496370109387</v>
       </c>
       <c r="N27">
-        <v>1.000025522954046</v>
+        <v>0.9991496370109387</v>
       </c>
       <c r="O27">
-        <v>1.000029498204798</v>
+        <v>0.999017358508123</v>
       </c>
       <c r="P27">
-        <v>1.000011341923124</v>
+        <v>0.999622061027165</v>
       </c>
       <c r="Q27">
-        <v>1.000011341923124</v>
+        <v>0.999622061027165</v>
       </c>
       <c r="R27">
-        <v>1.000004251407664</v>
+        <v>0.9998582730352781</v>
       </c>
       <c r="S27">
-        <v>1.000004251407664</v>
+        <v>0.9998582730352781</v>
       </c>
       <c r="T27">
-        <v>1.000001514490578</v>
+        <v>0.9999496058375449</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000110357171643</v>
+        <v>1.000150352930528</v>
       </c>
       <c r="D28">
-        <v>0.9997572053302179</v>
+        <v>0.9996692310591436</v>
       </c>
       <c r="E28">
-        <v>1.000294281822538</v>
+        <v>1.000400931423548</v>
       </c>
       <c r="F28">
-        <v>1.000110357171643</v>
+        <v>1.000150352930528</v>
       </c>
       <c r="G28">
-        <v>1.000110357171643</v>
+        <v>1.000150352930528</v>
       </c>
       <c r="H28">
-        <v>0.9995585754768366</v>
+        <v>0.9993985986976708</v>
       </c>
       <c r="I28">
-        <v>0.9995585754768366</v>
+        <v>0.9993985986976708</v>
       </c>
       <c r="J28">
-        <v>1.000110357171643</v>
+        <v>1.000150352930528</v>
       </c>
       <c r="K28">
-        <v>1.000110357171643</v>
+        <v>1.000150352930528</v>
       </c>
       <c r="L28">
-        <v>1.000110357171643</v>
+        <v>1.000150352930528</v>
       </c>
       <c r="M28">
-        <v>0.9998344663242398</v>
+        <v>0.9997744758140993</v>
       </c>
       <c r="N28">
-        <v>0.9998344663242398</v>
+        <v>0.9997744758140993</v>
       </c>
       <c r="O28">
-        <v>0.9998087126595658</v>
+        <v>0.9997393942291141</v>
       </c>
       <c r="P28">
-        <v>0.9999264299400409</v>
+        <v>0.9998997681862422</v>
       </c>
       <c r="Q28">
-        <v>0.9999264299400409</v>
+        <v>0.9998997681862422</v>
       </c>
       <c r="R28">
-        <v>0.9999724117479414</v>
+        <v>0.9999624143723136</v>
       </c>
       <c r="S28">
-        <v>0.9999724117479414</v>
+        <v>0.9999624143723136</v>
       </c>
       <c r="T28">
-        <v>0.9999901890240869</v>
+        <v>0.9999866366619909</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="D29">
+        <v>1.000037448706302</v>
+      </c>
+      <c r="E29">
+        <v>0.9999546326065073</v>
+      </c>
+      <c r="F29">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="G29">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="H29">
+        <v>1.00006806604681</v>
+      </c>
+      <c r="I29">
+        <v>1.00006806604681</v>
+      </c>
+      <c r="J29">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="K29">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="L29">
+        <v>0.999982979861282</v>
+      </c>
+      <c r="M29">
+        <v>1.000025522954046</v>
+      </c>
+      <c r="N29">
+        <v>1.000025522954046</v>
+      </c>
+      <c r="O29">
+        <v>1.000029498204798</v>
+      </c>
+      <c r="P29">
+        <v>1.000011341923124</v>
+      </c>
+      <c r="Q29">
+        <v>1.000011341923124</v>
+      </c>
+      <c r="R29">
+        <v>1.000004251407664</v>
+      </c>
+      <c r="S29">
+        <v>1.000004251407664</v>
+      </c>
+      <c r="T29">
+        <v>1.000001514490578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="D30">
+        <v>0.9997572053302179</v>
+      </c>
+      <c r="E30">
+        <v>1.000294281822538</v>
+      </c>
+      <c r="F30">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="G30">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="H30">
+        <v>0.9995585754768366</v>
+      </c>
+      <c r="I30">
+        <v>0.9995585754768366</v>
+      </c>
+      <c r="J30">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="K30">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="L30">
+        <v>1.000110357171643</v>
+      </c>
+      <c r="M30">
+        <v>0.9998344663242398</v>
+      </c>
+      <c r="N30">
+        <v>0.9998344663242398</v>
+      </c>
+      <c r="O30">
+        <v>0.9998087126595658</v>
+      </c>
+      <c r="P30">
+        <v>0.9999264299400409</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999264299400409</v>
+      </c>
+      <c r="R30">
+        <v>0.9999724117479414</v>
+      </c>
+      <c r="S30">
+        <v>0.9999724117479414</v>
+      </c>
+      <c r="T30">
+        <v>0.9999901890240869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.000157341691453</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9996538208582806</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.000419586712324</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.000157341691453</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.000157341691453</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9993706203664213</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9993706203664213</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.000157341691453</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.000157341691453</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000157341691453</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9997639810289369</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9997639810289369</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9997272609720514</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9998951012497755</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9998951012497755</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9999606613601948</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9999606613601948</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9999860088352306</v>
       </c>
     </row>
